--- a/dados_apontamento.xlsx
+++ b/dados_apontamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Fabricio\Trabalho\Ceneged\codigo ceneged\RobosCeneged\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDB62B7-350D-484C-95C8-5514763AAAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047CB576-9FA5-4344-AEA2-4265C1B339EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5BB472D8-36E3-4281-8C0A-29D75B4D5DA0}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="K4" s="2">
-        <v>3006940</v>
+        <v>3006950</v>
       </c>
       <c r="L4" s="2">
         <v>2</v>

--- a/dados_apontamento.xlsx
+++ b/dados_apontamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Fabricio\Trabalho\Ceneged\codigo ceneged\RobosCeneged\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047CB576-9FA5-4344-AEA2-4265C1B339EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A2C3BD-BA70-4EBF-9C85-CB7811C855C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5BB472D8-36E3-4281-8C0A-29D75B4D5DA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="36">
   <si>
     <t>obras_chosen</t>
   </si>
@@ -69,29 +69,77 @@
     <t>MT001</t>
   </si>
   <si>
-    <t>engenheiro paulo frontin</t>
-  </si>
-  <si>
     <t>MT002</t>
   </si>
   <si>
-    <t>expansão</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>teste3</t>
-  </si>
-  <si>
-    <t>Angra dos Reis</t>
+    <t>OMI-24-3524</t>
+  </si>
+  <si>
+    <t>OMI-24-3526</t>
+  </si>
+  <si>
+    <t>OMI-24-3522</t>
+  </si>
+  <si>
+    <t>OMI-24-3521</t>
+  </si>
+  <si>
+    <t>OMI-24-3520</t>
+  </si>
+  <si>
+    <t>OMI-24-3519</t>
+  </si>
+  <si>
+    <t>OMI-24-3517</t>
+  </si>
+  <si>
+    <t>OMI-24-3513</t>
+  </si>
+  <si>
+    <t>OMI-24-3510</t>
+  </si>
+  <si>
+    <t>OMI-24-3509</t>
+  </si>
+  <si>
+    <t>OMI-24-3508</t>
+  </si>
+  <si>
+    <t>OMI-24-3505</t>
+  </si>
+  <si>
+    <t>OMI-24-3502</t>
+  </si>
+  <si>
+    <t>OMI-24-3501</t>
+  </si>
+  <si>
+    <t>Miguel Pereira</t>
+  </si>
+  <si>
+    <t>Mendes</t>
+  </si>
+  <si>
+    <t>Engenheiro Paulo de Frontin</t>
+  </si>
+  <si>
+    <t>Barra do Pirai</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Piraí</t>
+  </si>
+  <si>
+    <t>EMERGENCIAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +151,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,11 +190,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B25B68-7903-44CC-AA74-8829917002A4}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,10 +529,10 @@
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,122 +569,2634 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2">
+        <v>801</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45631</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45631</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3013261</v>
+      </c>
+      <c r="L2" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2">
+        <v>801</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45631</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I3" s="4">
+        <v>45631</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3006137</v>
+      </c>
+      <c r="L3" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2">
+        <v>801</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45631</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I4" s="4">
+        <v>45631</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3002336</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2">
+        <v>801</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45630</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I5" s="4">
+        <v>45630</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K5">
+        <v>3006290</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2">
+        <v>801</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45630</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I6" s="4">
+        <v>45630</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K6">
+        <v>3006291</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>801</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45630</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45630</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K7">
+        <v>3006974</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2">
+        <v>801</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45630</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45630</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K8">
+        <v>3007369</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2">
+        <v>801</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45609</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I9" s="4">
+        <v>45609</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K9">
+        <v>3006290</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2">
+        <v>801</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45609</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I10" s="4">
+        <v>45609</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K10">
+        <v>3006291</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
+        <v>801</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45609</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I11" s="4">
+        <v>45609</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K11">
+        <v>3006969</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2">
+        <v>801</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45609</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I12" s="4">
+        <v>45609</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K12">
+        <v>3006291</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2">
+        <v>801</v>
+      </c>
+      <c r="G13" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I13" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K13">
+        <v>3006290</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2">
+        <v>801</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I14" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K14">
+        <v>3006291</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2">
+        <v>801</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I15" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K15">
+        <v>3006974</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2">
-        <v>801</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45639</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I2" s="3">
-        <v>45639</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K2" s="2">
-        <v>3006933</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2">
+        <v>801</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I16" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K16">
+        <v>3006930</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2">
+        <v>801</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I17" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K17">
+        <v>3007366</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2">
+        <v>801</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I18" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K18">
+        <v>3007367</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2">
+        <v>801</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I19" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K19">
+        <v>3007368</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2">
+        <v>801</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I20" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K20">
+        <v>3006290</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="2">
+        <v>801</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I21" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K21">
+        <v>3006291</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="2">
+        <v>801</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I22" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K22">
+        <v>3006938</v>
+      </c>
+      <c r="L22">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2">
+        <v>801</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I23" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K23">
+        <v>3006974</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="2">
+        <v>801</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45616</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I24" s="4">
+        <v>45616</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K24">
+        <v>3013261</v>
+      </c>
+      <c r="L24">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="2">
+        <v>801</v>
+      </c>
+      <c r="G25" s="4">
+        <v>45616</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I25" s="4">
+        <v>45616</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K25">
+        <v>3006137</v>
+      </c>
+      <c r="L25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="2">
+        <v>801</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45616</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I26" s="4">
+        <v>45616</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K26">
+        <v>3007366</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="2">
+        <v>801</v>
+      </c>
+      <c r="G27" s="4">
+        <v>45616</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I27" s="4">
+        <v>45616</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K27">
+        <v>3007367</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="2">
+        <v>801</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45616</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I28" s="4">
+        <v>45616</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K28">
+        <v>3006974</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2">
+        <v>801</v>
+      </c>
+      <c r="G29" s="4">
+        <v>45616</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I29" s="4">
+        <v>45616</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K29">
+        <v>3006930</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2">
+        <v>801</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45603</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I30" s="4">
+        <v>45603</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K30">
+        <v>3006988</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="2">
+        <v>801</v>
+      </c>
+      <c r="G31" s="4">
+        <v>45603</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I31" s="4">
+        <v>45603</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K31">
+        <v>3006290</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="2">
+        <v>801</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45603</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I32" s="4">
+        <v>45603</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K32">
+        <v>3006291</v>
+      </c>
+      <c r="L32">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2">
-        <v>801</v>
-      </c>
-      <c r="G3" s="3">
-        <v>45639</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I3" s="3">
-        <v>45639</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K3" s="2">
-        <v>3006931</v>
-      </c>
-      <c r="L3" s="2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="2">
+        <v>801</v>
+      </c>
+      <c r="G33" s="4">
+        <v>45603</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I33" s="4">
+        <v>45603</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K33">
+        <v>3005730</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="2">
+        <v>801</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45603</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I34" s="4">
+        <v>45603</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K34">
+        <v>3002370</v>
+      </c>
+      <c r="L34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="2">
+        <v>801</v>
+      </c>
+      <c r="G35" s="4">
+        <v>45600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I35" s="4">
+        <v>45600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K35">
+        <v>3013261</v>
+      </c>
+      <c r="L35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="2">
+        <v>801</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45600</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I36" s="4">
+        <v>45600</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K36">
+        <v>3006137</v>
+      </c>
+      <c r="L36">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="2">
+        <v>801</v>
+      </c>
+      <c r="G37" s="4">
+        <v>45600</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I37" s="4">
+        <v>45600</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K37">
+        <v>3007366</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="2">
+        <v>801</v>
+      </c>
+      <c r="G38" s="4">
+        <v>45600</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I38" s="4">
+        <v>45600</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K38">
+        <v>3006930</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="2">
+        <v>801</v>
+      </c>
+      <c r="G39" s="4">
+        <v>45600</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I39" s="4">
+        <v>45600</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K39">
+        <v>3006974</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="2">
+        <v>801</v>
+      </c>
+      <c r="G40" s="4">
+        <v>45600</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I40" s="4">
+        <v>45600</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K40">
+        <v>3007367</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="2">
+        <v>801</v>
+      </c>
+      <c r="G41" s="4">
+        <v>45595</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I41" s="4">
+        <v>45595</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K41">
+        <v>3013261</v>
+      </c>
+      <c r="L41">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="2">
+        <v>801</v>
+      </c>
+      <c r="G42" s="4">
+        <v>45595</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I42" s="4">
+        <v>45595</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K42">
+        <v>3007366</v>
+      </c>
+      <c r="L42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="2">
+        <v>801</v>
+      </c>
+      <c r="G43" s="4">
+        <v>45595</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I43" s="4">
+        <v>45595</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K43">
+        <v>3006137</v>
+      </c>
+      <c r="L43">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="2">
+        <v>801</v>
+      </c>
+      <c r="G44" s="4">
+        <v>45595</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I44" s="4">
+        <v>45595</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K44">
+        <v>3006974</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="2">
+        <v>801</v>
+      </c>
+      <c r="G45" s="4">
+        <v>45595</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I45" s="4">
+        <v>45595</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K45">
+        <v>3007367</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" s="2">
+        <v>801</v>
+      </c>
+      <c r="G46" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I46" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K46">
+        <v>3006137</v>
+      </c>
+      <c r="L46">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="2">
+        <v>801</v>
+      </c>
+      <c r="G47" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I47" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K47">
+        <v>3007366</v>
+      </c>
+      <c r="L47">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="2">
+        <v>801</v>
+      </c>
+      <c r="G48" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I48" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K48">
+        <v>3013261</v>
+      </c>
+      <c r="L48">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="2">
+        <v>801</v>
+      </c>
+      <c r="G49" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I49" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K49">
+        <v>3007367</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="2">
+        <v>801</v>
+      </c>
+      <c r="G50" s="4">
+        <v>45590</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I50" s="4">
+        <v>45590</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K50">
+        <v>3006974</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2">
-        <v>801</v>
-      </c>
-      <c r="G4" s="3">
-        <v>45640</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I4" s="3">
-        <v>45640</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="K4" s="2">
-        <v>3006950</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="D51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="2">
+        <v>801</v>
+      </c>
+      <c r="G51" s="4">
+        <v>45604</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I51" s="4">
+        <v>45604</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K51">
+        <v>3002314</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="2">
+        <v>801</v>
+      </c>
+      <c r="G52" s="4">
+        <v>45608</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I52" s="4">
+        <v>45608</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K52">
+        <v>3002314</v>
+      </c>
+      <c r="L52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="2">
+        <v>801</v>
+      </c>
+      <c r="G53" s="4">
+        <v>45610</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I53" s="4">
+        <v>45610</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K53">
+        <v>3002314</v>
+      </c>
+      <c r="L53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="2">
+        <v>801</v>
+      </c>
+      <c r="G54" s="4">
+        <v>45625</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I54" s="4">
+        <v>45625</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K54">
+        <v>3002314</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="2">
+        <v>801</v>
+      </c>
+      <c r="G55" s="4">
+        <v>45593</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I55" s="4">
+        <v>45593</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K55">
+        <v>3006137</v>
+      </c>
+      <c r="L55">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="2">
+        <v>801</v>
+      </c>
+      <c r="G56" s="4">
+        <v>45593</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I56" s="4">
+        <v>45593</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K56">
+        <v>3006974</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="2">
+        <v>801</v>
+      </c>
+      <c r="G57" s="4">
+        <v>45593</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I57" s="4">
+        <v>45593</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K57">
+        <v>3006975</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="2">
+        <v>801</v>
+      </c>
+      <c r="G58" s="4">
+        <v>45593</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I58" s="4">
+        <v>45593</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K58">
+        <v>3007366</v>
+      </c>
+      <c r="L58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="2">
+        <v>801</v>
+      </c>
+      <c r="G59" s="4">
+        <v>45593</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I59" s="4">
+        <v>45593</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K59">
+        <v>3007367</v>
+      </c>
+      <c r="L59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="2">
+        <v>801</v>
+      </c>
+      <c r="G60" s="4">
+        <v>45593</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I60" s="4">
+        <v>45593</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K60">
+        <v>3013261</v>
+      </c>
+      <c r="L60">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" s="2">
+        <v>801</v>
+      </c>
+      <c r="G61" s="4">
+        <v>45574</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I61" s="4">
+        <v>45574</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K61">
+        <v>3006137</v>
+      </c>
+      <c r="L61">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="2">
+        <v>801</v>
+      </c>
+      <c r="G62" s="4">
+        <v>45574</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I62" s="4">
+        <v>45574</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K62">
+        <v>3006974</v>
+      </c>
+      <c r="L62">
         <v>2</v>
       </c>
     </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="2">
+        <v>801</v>
+      </c>
+      <c r="G63" s="4">
+        <v>45574</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I63" s="4">
+        <v>45574</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K63">
+        <v>3007366</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" s="2">
+        <v>801</v>
+      </c>
+      <c r="G64" s="4">
+        <v>45574</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I64" s="4">
+        <v>45574</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K64">
+        <v>3007367</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="2">
+        <v>801</v>
+      </c>
+      <c r="G65" s="4">
+        <v>45574</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I65" s="4">
+        <v>45574</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K65">
+        <v>3013261</v>
+      </c>
+      <c r="L65">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="2">
+        <v>801</v>
+      </c>
+      <c r="G66" s="4">
+        <v>45573</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I66" s="4">
+        <v>45573</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K66">
+        <v>3006137</v>
+      </c>
+      <c r="L66">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="2">
+        <v>801</v>
+      </c>
+      <c r="G67" s="4">
+        <v>45573</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I67" s="4">
+        <v>45573</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K67">
+        <v>3006974</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="2">
+        <v>801</v>
+      </c>
+      <c r="G68" s="4">
+        <v>45573</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I68" s="4">
+        <v>45573</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K68">
+        <v>3007366</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="2">
+        <v>801</v>
+      </c>
+      <c r="G69" s="4">
+        <v>45573</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I69" s="4">
+        <v>45573</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K69">
+        <v>3007367</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" s="2">
+        <v>801</v>
+      </c>
+      <c r="G70" s="4">
+        <v>45573</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I70" s="4">
+        <v>45573</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K70">
+        <v>3013261</v>
+      </c>
+      <c r="L70">
+        <v>745</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/dados_apontamento.xlsx
+++ b/dados_apontamento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabriciogama\Downloads\Nova pasta\Robo_apontamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fabrício\Trabalho\Ceneged\codigo ceneged\RobosCeneged\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B5CC7F-C9BD-49AB-A0F6-4F6A9D7D6583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856FBBDF-6109-4057-851C-2C7CACADA2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="105">
   <si>
     <t>obras_chosen</t>
   </si>
@@ -240,6 +240,105 @@
   <si>
     <t>Vassouras</t>
   </si>
+  <si>
+    <t>OMI-25-3501</t>
+  </si>
+  <si>
+    <t>MT003</t>
+  </si>
+  <si>
+    <t>OII-24-6045</t>
+  </si>
+  <si>
+    <t>EX001</t>
+  </si>
+  <si>
+    <t>OII-24-6044</t>
+  </si>
+  <si>
+    <t>OII-24-6010</t>
+  </si>
+  <si>
+    <t>OMI-24-3532</t>
+  </si>
+  <si>
+    <t>OII-24-6011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OII-24-6010 </t>
+  </si>
+  <si>
+    <t>OS 96968596</t>
+  </si>
+  <si>
+    <t>OS 96964134</t>
+  </si>
+  <si>
+    <t>36 meses LV</t>
+  </si>
+  <si>
+    <t>MT007</t>
+  </si>
+  <si>
+    <t>OS 96581931</t>
+  </si>
+  <si>
+    <t>36 meses</t>
+  </si>
+  <si>
+    <t>OS 96962645</t>
+  </si>
+  <si>
+    <t>OS 96981936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 meses </t>
+  </si>
+  <si>
+    <t>OS 96957206</t>
+  </si>
+  <si>
+    <t>OS 96992214</t>
+  </si>
+  <si>
+    <t>OS 96968397</t>
+  </si>
+  <si>
+    <t>OS 96989529</t>
+  </si>
+  <si>
+    <t>OS 97002233</t>
+  </si>
+  <si>
+    <t>OII-24-2012</t>
+  </si>
+  <si>
+    <t>MT004</t>
+  </si>
+  <si>
+    <t>OII-24-7036</t>
+  </si>
+  <si>
+    <t>OII-25-4011</t>
+  </si>
+  <si>
+    <t>Três Rios</t>
+  </si>
+  <si>
+    <t>OII-25-4040</t>
+  </si>
+  <si>
+    <t>OII-25-4033</t>
+  </si>
+  <si>
+    <t>OS 96983183</t>
+  </si>
+  <si>
+    <t>OS 96989142</t>
+  </si>
+  <si>
+    <t>EX012</t>
+  </si>
 </sst>
 </file>
 
@@ -307,9 +406,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -347,7 +446,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -453,7 +552,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -595,7 +694,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,30 +703,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:M217"/>
+  <dimension ref="A1:M290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="G221" sqref="G221"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="A266" sqref="A266:M266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -709,7 +808,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -750,7 +849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -791,7 +890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -832,7 +931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -873,7 +972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -914,7 +1013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -955,7 +1054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -996,7 +1095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1037,7 +1136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1078,7 +1177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1119,7 +1218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1160,7 +1259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1201,7 +1300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1242,7 +1341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1283,7 +1382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1324,7 +1423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1365,7 +1464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1406,7 +1505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1447,7 +1546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1488,7 +1587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1529,7 +1628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1570,7 +1669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1611,7 +1710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1652,7 +1751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1693,7 +1792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1734,7 +1833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1775,7 +1874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1816,7 +1915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1857,7 +1956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1898,7 +1997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1939,7 +2038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1980,7 +2079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2021,7 +2120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2062,7 +2161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2103,7 +2202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2144,7 +2243,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -2185,7 +2284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2226,7 +2325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -2267,7 +2366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -2308,7 +2407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2349,7 +2448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2390,7 +2489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2431,7 +2530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -2472,7 +2571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -2513,7 +2612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -2554,7 +2653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -2595,7 +2694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2636,7 +2735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -2677,7 +2776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -2718,7 +2817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2759,7 +2858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -2800,7 +2899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -2841,7 +2940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2882,7 +2981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2923,7 +3022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -2964,7 +3063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -3005,7 +3104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -3046,7 +3145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -3087,7 +3186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -3128,7 +3227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -3169,7 +3268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -3210,7 +3309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -3251,7 +3350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -3292,7 +3391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -3333,7 +3432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -3374,7 +3473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -3415,7 +3514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -3456,7 +3555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -3497,7 +3596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -3538,7 +3637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -3579,7 +3678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -3620,7 +3719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -3661,7 +3760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -3702,7 +3801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -3743,7 +3842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -3784,7 +3883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -3825,7 +3924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -3866,7 +3965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>37</v>
       </c>
@@ -3907,7 +4006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -3948,7 +4047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -3989,7 +4088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -4030,7 +4129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -4071,7 +4170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -4112,7 +4211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -4153,7 +4252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -4194,7 +4293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -4235,7 +4334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -4276,7 +4375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -4317,7 +4416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -4358,7 +4457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -4399,7 +4498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -4440,7 +4539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>42</v>
       </c>
@@ -4481,7 +4580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>42</v>
       </c>
@@ -4522,7 +4621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>42</v>
       </c>
@@ -4563,7 +4662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -4604,7 +4703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -4645,7 +4744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>43</v>
       </c>
@@ -4686,7 +4785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -4727,7 +4826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -4768,7 +4867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -4809,7 +4908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>43</v>
       </c>
@@ -4850,7 +4949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -4891,7 +4990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -4932,7 +5031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>35</v>
       </c>
@@ -4973,7 +5072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>35</v>
       </c>
@@ -5014,7 +5113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>35</v>
       </c>
@@ -5055,7 +5154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -5096,7 +5195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -5137,7 +5236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>37</v>
       </c>
@@ -5178,7 +5277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -5219,7 +5318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -5260,7 +5359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>40</v>
       </c>
@@ -5301,7 +5400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -5342,7 +5441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -5383,7 +5482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -5424,7 +5523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -5465,7 +5564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>45</v>
       </c>
@@ -5506,7 +5605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>45</v>
       </c>
@@ -5547,7 +5646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>45</v>
       </c>
@@ -5588,7 +5687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -5629,7 +5728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>47</v>
       </c>
@@ -5670,7 +5769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>47</v>
       </c>
@@ -5711,7 +5810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>47</v>
       </c>
@@ -5752,7 +5851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>47</v>
       </c>
@@ -5793,7 +5892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>48</v>
       </c>
@@ -5834,7 +5933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>48</v>
       </c>
@@ -5875,7 +5974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>48</v>
       </c>
@@ -5916,7 +6015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>48</v>
       </c>
@@ -5957,7 +6056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>48</v>
       </c>
@@ -5998,7 +6097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>48</v>
       </c>
@@ -6039,7 +6138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>48</v>
       </c>
@@ -6080,7 +6179,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>48</v>
       </c>
@@ -6121,7 +6220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>48</v>
       </c>
@@ -6162,7 +6261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>49</v>
       </c>
@@ -6203,7 +6302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>49</v>
       </c>
@@ -6244,7 +6343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -6285,7 +6384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -6326,7 +6425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -6367,7 +6466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -6408,7 +6507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -6449,7 +6548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -6490,7 +6589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>50</v>
       </c>
@@ -6531,7 +6630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>50</v>
       </c>
@@ -6572,7 +6671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>50</v>
       </c>
@@ -6613,7 +6712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>50</v>
       </c>
@@ -6654,7 +6753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>50</v>
       </c>
@@ -6695,7 +6794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>51</v>
       </c>
@@ -6736,7 +6835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>51</v>
       </c>
@@ -6777,7 +6876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>51</v>
       </c>
@@ -6818,7 +6917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>51</v>
       </c>
@@ -6859,7 +6958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>51</v>
       </c>
@@ -6900,7 +6999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>53</v>
       </c>
@@ -6941,7 +7040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>53</v>
       </c>
@@ -6982,7 +7081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>53</v>
       </c>
@@ -7023,7 +7122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>53</v>
       </c>
@@ -7064,7 +7163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>53</v>
       </c>
@@ -7105,7 +7204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>54</v>
       </c>
@@ -7146,7 +7245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>54</v>
       </c>
@@ -7187,7 +7286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>54</v>
       </c>
@@ -7228,7 +7327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>54</v>
       </c>
@@ -7269,7 +7368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>54</v>
       </c>
@@ -7310,7 +7409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>40</v>
       </c>
@@ -7351,7 +7450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>55</v>
       </c>
@@ -7392,7 +7491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>55</v>
       </c>
@@ -7433,7 +7532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>55</v>
       </c>
@@ -7474,7 +7573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>56</v>
       </c>
@@ -7515,7 +7614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>56</v>
       </c>
@@ -7556,7 +7655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>56</v>
       </c>
@@ -7597,7 +7696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>56</v>
       </c>
@@ -7638,7 +7737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>20</v>
       </c>
@@ -7670,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>20</v>
       </c>
@@ -7702,7 +7801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>57</v>
       </c>
@@ -7743,7 +7842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>40</v>
       </c>
@@ -7784,7 +7883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>59</v>
       </c>
@@ -7825,7 +7924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>59</v>
       </c>
@@ -7866,7 +7965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>59</v>
       </c>
@@ -7907,7 +8006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>59</v>
       </c>
@@ -7948,7 +8047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>59</v>
       </c>
@@ -7989,7 +8088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>59</v>
       </c>
@@ -8030,7 +8129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>61</v>
       </c>
@@ -8071,7 +8170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>61</v>
       </c>
@@ -8112,7 +8211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>61</v>
       </c>
@@ -8153,7 +8252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -8194,7 +8293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>61</v>
       </c>
@@ -8235,7 +8334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>61</v>
       </c>
@@ -8276,7 +8375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>61</v>
       </c>
@@ -8317,7 +8416,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>62</v>
       </c>
@@ -8358,7 +8457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>62</v>
       </c>
@@ -8399,7 +8498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>62</v>
       </c>
@@ -8440,7 +8539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>62</v>
       </c>
@@ -8481,7 +8580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>62</v>
       </c>
@@ -8522,7 +8621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>62</v>
       </c>
@@ -8563,7 +8662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>64</v>
       </c>
@@ -8604,7 +8703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>64</v>
       </c>
@@ -8645,7 +8744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>64</v>
       </c>
@@ -8686,7 +8785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>64</v>
       </c>
@@ -8727,7 +8826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>64</v>
       </c>
@@ -8768,7 +8867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>65</v>
       </c>
@@ -8809,7 +8908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>65</v>
       </c>
@@ -8850,7 +8949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>65</v>
       </c>
@@ -8891,7 +8990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>40</v>
       </c>
@@ -8932,7 +9031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>40</v>
       </c>
@@ -8973,7 +9072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>67</v>
       </c>
@@ -9014,7 +9113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>67</v>
       </c>
@@ -9055,7 +9154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>67</v>
       </c>
@@ -9096,7 +9195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>67</v>
       </c>
@@ -9137,7 +9236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>67</v>
       </c>
@@ -9178,7 +9277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>67</v>
       </c>
@@ -9219,7 +9318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>67</v>
       </c>
@@ -9260,7 +9359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>68</v>
       </c>
@@ -9301,7 +9400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>68</v>
       </c>
@@ -9342,7 +9441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>68</v>
       </c>
@@ -9383,7 +9482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>70</v>
       </c>
@@ -9424,7 +9523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>70</v>
       </c>
@@ -9465,7 +9564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>70</v>
       </c>
@@ -9503,6 +9602,2987 @@
         <v>1</v>
       </c>
       <c r="M217" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>72</v>
+      </c>
+      <c r="B218" t="s">
+        <v>20</v>
+      </c>
+      <c r="C218" t="s">
+        <v>73</v>
+      </c>
+      <c r="D218" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218" t="s">
+        <v>39</v>
+      </c>
+      <c r="F218">
+        <v>801</v>
+      </c>
+      <c r="G218" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H218" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I218" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J218" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K218">
+        <v>3007366</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>72</v>
+      </c>
+      <c r="B219" t="s">
+        <v>20</v>
+      </c>
+      <c r="C219" t="s">
+        <v>73</v>
+      </c>
+      <c r="D219" t="s">
+        <v>20</v>
+      </c>
+      <c r="E219" t="s">
+        <v>39</v>
+      </c>
+      <c r="F219">
+        <v>801</v>
+      </c>
+      <c r="G219" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H219" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I219" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J219" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K219">
+        <v>3007367</v>
+      </c>
+      <c r="L219">
+        <v>3</v>
+      </c>
+      <c r="M219" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>72</v>
+      </c>
+      <c r="B220" t="s">
+        <v>20</v>
+      </c>
+      <c r="C220" t="s">
+        <v>73</v>
+      </c>
+      <c r="D220" t="s">
+        <v>20</v>
+      </c>
+      <c r="E220" t="s">
+        <v>39</v>
+      </c>
+      <c r="F220">
+        <v>801</v>
+      </c>
+      <c r="G220" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H220" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I220" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J220" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K220">
+        <v>3006135</v>
+      </c>
+      <c r="L220">
+        <v>270</v>
+      </c>
+      <c r="M220" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>72</v>
+      </c>
+      <c r="B221" t="s">
+        <v>20</v>
+      </c>
+      <c r="C221" t="s">
+        <v>73</v>
+      </c>
+      <c r="D221" t="s">
+        <v>20</v>
+      </c>
+      <c r="E221" t="s">
+        <v>39</v>
+      </c>
+      <c r="F221">
+        <v>801</v>
+      </c>
+      <c r="G221" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H221" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I221" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J221" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K221">
+        <v>3006137</v>
+      </c>
+      <c r="L221">
+        <v>270</v>
+      </c>
+      <c r="M221" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>72</v>
+      </c>
+      <c r="B222" t="s">
+        <v>20</v>
+      </c>
+      <c r="C222" t="s">
+        <v>73</v>
+      </c>
+      <c r="D222" t="s">
+        <v>20</v>
+      </c>
+      <c r="E222" t="s">
+        <v>39</v>
+      </c>
+      <c r="F222">
+        <v>801</v>
+      </c>
+      <c r="G222" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H222" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I222" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J222" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K222">
+        <v>3006974</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+      <c r="M222" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>74</v>
+      </c>
+      <c r="B223" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" t="s">
+        <v>75</v>
+      </c>
+      <c r="D223" t="s">
+        <v>14</v>
+      </c>
+      <c r="E223" t="s">
+        <v>39</v>
+      </c>
+      <c r="F223">
+        <v>801</v>
+      </c>
+      <c r="G223" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H223" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I223" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J223" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K223">
+        <v>3002314</v>
+      </c>
+      <c r="L223">
+        <v>3</v>
+      </c>
+      <c r="M223" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>74</v>
+      </c>
+      <c r="B224" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" t="s">
+        <v>75</v>
+      </c>
+      <c r="D224" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" t="s">
+        <v>39</v>
+      </c>
+      <c r="F224">
+        <v>801</v>
+      </c>
+      <c r="G224" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H224" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I224" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J224" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K224">
+        <v>3002314</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>76</v>
+      </c>
+      <c r="B225" t="s">
+        <v>14</v>
+      </c>
+      <c r="C225" t="s">
+        <v>75</v>
+      </c>
+      <c r="D225" t="s">
+        <v>14</v>
+      </c>
+      <c r="E225" t="s">
+        <v>39</v>
+      </c>
+      <c r="F225">
+        <v>801</v>
+      </c>
+      <c r="G225" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H225" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I225" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J225" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K225">
+        <v>3002314</v>
+      </c>
+      <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>76</v>
+      </c>
+      <c r="B226" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" t="s">
+        <v>75</v>
+      </c>
+      <c r="D226" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226" t="s">
+        <v>39</v>
+      </c>
+      <c r="F226">
+        <v>801</v>
+      </c>
+      <c r="G226" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H226" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I226" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J226" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K226">
+        <v>3007369</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>77</v>
+      </c>
+      <c r="B227" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" t="s">
+        <v>75</v>
+      </c>
+      <c r="D227" t="s">
+        <v>14</v>
+      </c>
+      <c r="E227" t="s">
+        <v>39</v>
+      </c>
+      <c r="F227">
+        <v>801</v>
+      </c>
+      <c r="G227" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H227" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I227" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J227" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K227">
+        <v>3007369</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>78</v>
+      </c>
+      <c r="B228" t="s">
+        <v>20</v>
+      </c>
+      <c r="C228" t="s">
+        <v>73</v>
+      </c>
+      <c r="D228" t="s">
+        <v>20</v>
+      </c>
+      <c r="E228" t="s">
+        <v>39</v>
+      </c>
+      <c r="F228">
+        <v>801</v>
+      </c>
+      <c r="G228" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H228" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I228" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J228" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K228">
+        <v>3006974</v>
+      </c>
+      <c r="L228">
+        <v>2</v>
+      </c>
+      <c r="M228" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>79</v>
+      </c>
+      <c r="B229" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" t="s">
+        <v>75</v>
+      </c>
+      <c r="D229" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229" t="s">
+        <v>39</v>
+      </c>
+      <c r="F229">
+        <v>801</v>
+      </c>
+      <c r="G229" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H229" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I229" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J229" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K229">
+        <v>3002314</v>
+      </c>
+      <c r="L229">
+        <v>3</v>
+      </c>
+      <c r="M229" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>79</v>
+      </c>
+      <c r="B230" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" t="s">
+        <v>75</v>
+      </c>
+      <c r="D230" t="s">
+        <v>14</v>
+      </c>
+      <c r="E230" t="s">
+        <v>39</v>
+      </c>
+      <c r="F230">
+        <v>801</v>
+      </c>
+      <c r="G230" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H230" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I230" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J230" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K230">
+        <v>3007369</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>80</v>
+      </c>
+      <c r="B231" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231" t="s">
+        <v>75</v>
+      </c>
+      <c r="D231" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" t="s">
+        <v>39</v>
+      </c>
+      <c r="F231">
+        <v>801</v>
+      </c>
+      <c r="G231" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H231" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I231" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J231" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K231">
+        <v>3002314</v>
+      </c>
+      <c r="L231">
+        <v>3</v>
+      </c>
+      <c r="M231" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>81</v>
+      </c>
+      <c r="B232" t="s">
+        <v>20</v>
+      </c>
+      <c r="C232" t="s">
+        <v>73</v>
+      </c>
+      <c r="D232" t="s">
+        <v>29</v>
+      </c>
+      <c r="E232" t="s">
+        <v>39</v>
+      </c>
+      <c r="F232">
+        <v>801</v>
+      </c>
+      <c r="G232" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H232" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I232" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J232" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K232">
+        <v>3011020</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>81</v>
+      </c>
+      <c r="B233" t="s">
+        <v>20</v>
+      </c>
+      <c r="C233" t="s">
+        <v>73</v>
+      </c>
+      <c r="D233" t="s">
+        <v>29</v>
+      </c>
+      <c r="E233" t="s">
+        <v>39</v>
+      </c>
+      <c r="F233">
+        <v>801</v>
+      </c>
+      <c r="G233" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H233" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I233" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J233" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K233">
+        <v>3011021</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>81</v>
+      </c>
+      <c r="B234" t="s">
+        <v>20</v>
+      </c>
+      <c r="C234" t="s">
+        <v>73</v>
+      </c>
+      <c r="D234" t="s">
+        <v>29</v>
+      </c>
+      <c r="E234" t="s">
+        <v>39</v>
+      </c>
+      <c r="F234">
+        <v>801</v>
+      </c>
+      <c r="G234" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H234" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I234" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J234" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K234">
+        <v>3006974</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>81</v>
+      </c>
+      <c r="B235" t="s">
+        <v>20</v>
+      </c>
+      <c r="C235" t="s">
+        <v>73</v>
+      </c>
+      <c r="D235" t="s">
+        <v>29</v>
+      </c>
+      <c r="E235" t="s">
+        <v>39</v>
+      </c>
+      <c r="F235">
+        <v>801</v>
+      </c>
+      <c r="G235" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H235" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I235" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J235" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K235">
+        <v>3006969</v>
+      </c>
+      <c r="L235">
+        <v>3</v>
+      </c>
+      <c r="M235" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>82</v>
+      </c>
+      <c r="B236" t="s">
+        <v>83</v>
+      </c>
+      <c r="C236" t="s">
+        <v>84</v>
+      </c>
+      <c r="D236" t="s">
+        <v>29</v>
+      </c>
+      <c r="E236" t="s">
+        <v>66</v>
+      </c>
+      <c r="F236">
+        <v>801</v>
+      </c>
+      <c r="G236" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H236" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I236" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J236" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K236">
+        <v>3010783</v>
+      </c>
+      <c r="L236">
+        <v>36</v>
+      </c>
+      <c r="M236" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>82</v>
+      </c>
+      <c r="B237" t="s">
+        <v>83</v>
+      </c>
+      <c r="C237" t="s">
+        <v>84</v>
+      </c>
+      <c r="D237" t="s">
+        <v>29</v>
+      </c>
+      <c r="E237" t="s">
+        <v>66</v>
+      </c>
+      <c r="F237">
+        <v>801</v>
+      </c>
+      <c r="G237" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H237" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I237" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J237" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K237">
+        <v>3010787</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>82</v>
+      </c>
+      <c r="B238" t="s">
+        <v>83</v>
+      </c>
+      <c r="C238" t="s">
+        <v>84</v>
+      </c>
+      <c r="D238" t="s">
+        <v>29</v>
+      </c>
+      <c r="E238" t="s">
+        <v>66</v>
+      </c>
+      <c r="F238">
+        <v>801</v>
+      </c>
+      <c r="G238" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H238" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I238" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J238" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K238">
+        <v>3001874</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>85</v>
+      </c>
+      <c r="B239" t="s">
+        <v>86</v>
+      </c>
+      <c r="C239" t="s">
+        <v>84</v>
+      </c>
+      <c r="D239" t="s">
+        <v>29</v>
+      </c>
+      <c r="E239" t="s">
+        <v>66</v>
+      </c>
+      <c r="F239">
+        <v>801</v>
+      </c>
+      <c r="G239" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H239" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I239" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J239" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K239">
+        <v>3001874</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>87</v>
+      </c>
+      <c r="B240" t="s">
+        <v>83</v>
+      </c>
+      <c r="C240" t="s">
+        <v>84</v>
+      </c>
+      <c r="D240" t="s">
+        <v>29</v>
+      </c>
+      <c r="E240" t="s">
+        <v>66</v>
+      </c>
+      <c r="F240">
+        <v>801</v>
+      </c>
+      <c r="G240" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H240" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I240" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J240" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K240">
+        <v>3010787</v>
+      </c>
+      <c r="L240">
+        <v>3</v>
+      </c>
+      <c r="M240" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>87</v>
+      </c>
+      <c r="B241" t="s">
+        <v>83</v>
+      </c>
+      <c r="C241" t="s">
+        <v>84</v>
+      </c>
+      <c r="D241" t="s">
+        <v>29</v>
+      </c>
+      <c r="E241" t="s">
+        <v>66</v>
+      </c>
+      <c r="F241">
+        <v>801</v>
+      </c>
+      <c r="G241" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H241" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I241" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J241" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K241">
+        <v>3007390</v>
+      </c>
+      <c r="L241">
+        <v>3</v>
+      </c>
+      <c r="M241" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>87</v>
+      </c>
+      <c r="B242" t="s">
+        <v>83</v>
+      </c>
+      <c r="C242" t="s">
+        <v>84</v>
+      </c>
+      <c r="D242" t="s">
+        <v>29</v>
+      </c>
+      <c r="E242" t="s">
+        <v>66</v>
+      </c>
+      <c r="F242">
+        <v>801</v>
+      </c>
+      <c r="G242" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H242" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I242" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J242" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K242">
+        <v>3007391</v>
+      </c>
+      <c r="L242">
+        <v>9</v>
+      </c>
+      <c r="M242" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>87</v>
+      </c>
+      <c r="B243" t="s">
+        <v>83</v>
+      </c>
+      <c r="C243" t="s">
+        <v>84</v>
+      </c>
+      <c r="D243" t="s">
+        <v>29</v>
+      </c>
+      <c r="E243" t="s">
+        <v>66</v>
+      </c>
+      <c r="F243">
+        <v>801</v>
+      </c>
+      <c r="G243" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H243" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I243" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J243" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K243">
+        <v>3010783</v>
+      </c>
+      <c r="L243">
+        <v>3</v>
+      </c>
+      <c r="M243" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>87</v>
+      </c>
+      <c r="B244" t="s">
+        <v>83</v>
+      </c>
+      <c r="C244" t="s">
+        <v>84</v>
+      </c>
+      <c r="D244" t="s">
+        <v>29</v>
+      </c>
+      <c r="E244" t="s">
+        <v>66</v>
+      </c>
+      <c r="F244">
+        <v>801</v>
+      </c>
+      <c r="G244" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H244" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I244" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J244" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K244">
+        <v>3010787</v>
+      </c>
+      <c r="L244">
+        <v>3</v>
+      </c>
+      <c r="M244" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>87</v>
+      </c>
+      <c r="B245" t="s">
+        <v>83</v>
+      </c>
+      <c r="C245" t="s">
+        <v>84</v>
+      </c>
+      <c r="D245" t="s">
+        <v>29</v>
+      </c>
+      <c r="E245" t="s">
+        <v>66</v>
+      </c>
+      <c r="F245">
+        <v>801</v>
+      </c>
+      <c r="G245" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H245" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I245" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J245" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K245">
+        <v>3007390</v>
+      </c>
+      <c r="L245">
+        <v>270</v>
+      </c>
+      <c r="M245" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>87</v>
+      </c>
+      <c r="B246" t="s">
+        <v>83</v>
+      </c>
+      <c r="C246" t="s">
+        <v>84</v>
+      </c>
+      <c r="D246" t="s">
+        <v>29</v>
+      </c>
+      <c r="E246" t="s">
+        <v>66</v>
+      </c>
+      <c r="F246">
+        <v>801</v>
+      </c>
+      <c r="G246" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H246" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I246" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J246" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K246">
+        <v>3007391</v>
+      </c>
+      <c r="L246">
+        <v>270</v>
+      </c>
+      <c r="M246" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>88</v>
+      </c>
+      <c r="B247" t="s">
+        <v>89</v>
+      </c>
+      <c r="C247" t="s">
+        <v>84</v>
+      </c>
+      <c r="D247" t="s">
+        <v>29</v>
+      </c>
+      <c r="E247" t="s">
+        <v>66</v>
+      </c>
+      <c r="F247">
+        <v>801</v>
+      </c>
+      <c r="G247" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H247" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I247" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J247" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K247">
+        <v>3002327</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>88</v>
+      </c>
+      <c r="B248" t="s">
+        <v>89</v>
+      </c>
+      <c r="C248" t="s">
+        <v>84</v>
+      </c>
+      <c r="D248" t="s">
+        <v>29</v>
+      </c>
+      <c r="E248" t="s">
+        <v>66</v>
+      </c>
+      <c r="F248">
+        <v>801</v>
+      </c>
+      <c r="G248" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H248" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I248" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J248" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K248">
+        <v>3002333</v>
+      </c>
+      <c r="L248">
+        <v>3</v>
+      </c>
+      <c r="M248" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>88</v>
+      </c>
+      <c r="B249" t="s">
+        <v>89</v>
+      </c>
+      <c r="C249" t="s">
+        <v>84</v>
+      </c>
+      <c r="D249" t="s">
+        <v>29</v>
+      </c>
+      <c r="E249" t="s">
+        <v>66</v>
+      </c>
+      <c r="F249">
+        <v>801</v>
+      </c>
+      <c r="G249" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H249" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I249" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J249" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K249">
+        <v>3006292</v>
+      </c>
+      <c r="L249">
+        <v>3</v>
+      </c>
+      <c r="M249" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>88</v>
+      </c>
+      <c r="B250" t="s">
+        <v>89</v>
+      </c>
+      <c r="C250" t="s">
+        <v>84</v>
+      </c>
+      <c r="D250" t="s">
+        <v>29</v>
+      </c>
+      <c r="E250" t="s">
+        <v>66</v>
+      </c>
+      <c r="F250">
+        <v>801</v>
+      </c>
+      <c r="G250" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H250" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I250" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J250" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K250">
+        <v>3006293</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>88</v>
+      </c>
+      <c r="B251" t="s">
+        <v>89</v>
+      </c>
+      <c r="C251" t="s">
+        <v>84</v>
+      </c>
+      <c r="D251" t="s">
+        <v>29</v>
+      </c>
+      <c r="E251" t="s">
+        <v>66</v>
+      </c>
+      <c r="F251">
+        <v>801</v>
+      </c>
+      <c r="G251" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H251" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I251" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J251" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K251">
+        <v>3009723</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
+      <c r="M251" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>88</v>
+      </c>
+      <c r="B252" t="s">
+        <v>89</v>
+      </c>
+      <c r="C252" t="s">
+        <v>84</v>
+      </c>
+      <c r="D252" t="s">
+        <v>29</v>
+      </c>
+      <c r="E252" t="s">
+        <v>66</v>
+      </c>
+      <c r="F252">
+        <v>801</v>
+      </c>
+      <c r="G252" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H252" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I252" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J252" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K252">
+        <v>3006939</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+      <c r="M252" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>90</v>
+      </c>
+      <c r="B253" t="s">
+        <v>89</v>
+      </c>
+      <c r="C253" t="s">
+        <v>84</v>
+      </c>
+      <c r="D253" t="s">
+        <v>29</v>
+      </c>
+      <c r="E253" t="s">
+        <v>66</v>
+      </c>
+      <c r="F253">
+        <v>801</v>
+      </c>
+      <c r="G253" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H253" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I253" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J253" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K253">
+        <v>3002327</v>
+      </c>
+      <c r="L253">
+        <v>3</v>
+      </c>
+      <c r="M253" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>90</v>
+      </c>
+      <c r="B254" t="s">
+        <v>89</v>
+      </c>
+      <c r="C254" t="s">
+        <v>84</v>
+      </c>
+      <c r="D254" t="s">
+        <v>29</v>
+      </c>
+      <c r="E254" t="s">
+        <v>66</v>
+      </c>
+      <c r="F254">
+        <v>801</v>
+      </c>
+      <c r="G254" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H254" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I254" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J254" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K254">
+        <v>3007369</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>90</v>
+      </c>
+      <c r="B255" t="s">
+        <v>89</v>
+      </c>
+      <c r="C255" t="s">
+        <v>84</v>
+      </c>
+      <c r="D255" t="s">
+        <v>29</v>
+      </c>
+      <c r="E255" t="s">
+        <v>66</v>
+      </c>
+      <c r="F255">
+        <v>801</v>
+      </c>
+      <c r="G255" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H255" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I255" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J255" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K255">
+        <v>3006292</v>
+      </c>
+      <c r="L255">
+        <v>36</v>
+      </c>
+      <c r="M255" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>91</v>
+      </c>
+      <c r="B256" t="s">
+        <v>89</v>
+      </c>
+      <c r="C256" t="s">
+        <v>84</v>
+      </c>
+      <c r="D256" t="s">
+        <v>29</v>
+      </c>
+      <c r="E256" t="s">
+        <v>66</v>
+      </c>
+      <c r="F256">
+        <v>801</v>
+      </c>
+      <c r="G256" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H256" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I256" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J256" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K256">
+        <v>3006293</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="M256" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>91</v>
+      </c>
+      <c r="B257" t="s">
+        <v>89</v>
+      </c>
+      <c r="C257" t="s">
+        <v>84</v>
+      </c>
+      <c r="D257" t="s">
+        <v>29</v>
+      </c>
+      <c r="E257" t="s">
+        <v>66</v>
+      </c>
+      <c r="F257">
+        <v>801</v>
+      </c>
+      <c r="G257" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H257" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I257" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J257" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K257">
+        <v>3006975</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>91</v>
+      </c>
+      <c r="B258" t="s">
+        <v>89</v>
+      </c>
+      <c r="C258" t="s">
+        <v>84</v>
+      </c>
+      <c r="D258" t="s">
+        <v>29</v>
+      </c>
+      <c r="E258" t="s">
+        <v>66</v>
+      </c>
+      <c r="F258">
+        <v>801</v>
+      </c>
+      <c r="G258" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H258" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I258" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J258" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K258">
+        <v>3011020</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>91</v>
+      </c>
+      <c r="B259" t="s">
+        <v>89</v>
+      </c>
+      <c r="C259" t="s">
+        <v>84</v>
+      </c>
+      <c r="D259" t="s">
+        <v>29</v>
+      </c>
+      <c r="E259" t="s">
+        <v>66</v>
+      </c>
+      <c r="F259">
+        <v>801</v>
+      </c>
+      <c r="G259" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H259" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I259" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J259" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K259">
+        <v>3011021</v>
+      </c>
+      <c r="L259">
+        <v>3</v>
+      </c>
+      <c r="M259" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>91</v>
+      </c>
+      <c r="B260" t="s">
+        <v>89</v>
+      </c>
+      <c r="C260" t="s">
+        <v>84</v>
+      </c>
+      <c r="D260" t="s">
+        <v>29</v>
+      </c>
+      <c r="E260" t="s">
+        <v>66</v>
+      </c>
+      <c r="F260">
+        <v>801</v>
+      </c>
+      <c r="G260" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H260" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I260" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J260" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K260">
+        <v>3006975</v>
+      </c>
+      <c r="L260">
+        <v>3</v>
+      </c>
+      <c r="M260" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>92</v>
+      </c>
+      <c r="B261" t="s">
+        <v>89</v>
+      </c>
+      <c r="C261" t="s">
+        <v>84</v>
+      </c>
+      <c r="D261" t="s">
+        <v>29</v>
+      </c>
+      <c r="E261" t="s">
+        <v>66</v>
+      </c>
+      <c r="F261">
+        <v>801</v>
+      </c>
+      <c r="G261" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H261" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I261" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J261" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K261">
+        <v>3011017</v>
+      </c>
+      <c r="L261">
+        <v>3</v>
+      </c>
+      <c r="M261" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>92</v>
+      </c>
+      <c r="B262" t="s">
+        <v>89</v>
+      </c>
+      <c r="C262" t="s">
+        <v>84</v>
+      </c>
+      <c r="D262" t="s">
+        <v>29</v>
+      </c>
+      <c r="E262" t="s">
+        <v>66</v>
+      </c>
+      <c r="F262">
+        <v>801</v>
+      </c>
+      <c r="G262" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H262" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I262" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J262" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K262">
+        <v>3006975</v>
+      </c>
+      <c r="L262">
+        <v>9</v>
+      </c>
+      <c r="M262" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>93</v>
+      </c>
+      <c r="B263" t="s">
+        <v>89</v>
+      </c>
+      <c r="C263" t="s">
+        <v>84</v>
+      </c>
+      <c r="D263" t="s">
+        <v>29</v>
+      </c>
+      <c r="E263" t="s">
+        <v>66</v>
+      </c>
+      <c r="F263">
+        <v>801</v>
+      </c>
+      <c r="G263" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H263" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I263" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J263" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K263">
+        <v>3009281</v>
+      </c>
+      <c r="L263">
+        <v>3</v>
+      </c>
+      <c r="M263" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>94</v>
+      </c>
+      <c r="B264" t="s">
+        <v>89</v>
+      </c>
+      <c r="C264" t="s">
+        <v>84</v>
+      </c>
+      <c r="D264" t="s">
+        <v>29</v>
+      </c>
+      <c r="E264" t="s">
+        <v>66</v>
+      </c>
+      <c r="F264">
+        <v>801</v>
+      </c>
+      <c r="G264" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H264" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I264" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J264" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K264">
+        <v>3011026</v>
+      </c>
+      <c r="L264">
+        <v>3</v>
+      </c>
+      <c r="M264" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>94</v>
+      </c>
+      <c r="B265" t="s">
+        <v>89</v>
+      </c>
+      <c r="C265" t="s">
+        <v>84</v>
+      </c>
+      <c r="D265" t="s">
+        <v>29</v>
+      </c>
+      <c r="E265" t="s">
+        <v>66</v>
+      </c>
+      <c r="F265">
+        <v>801</v>
+      </c>
+      <c r="G265" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H265" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I265" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J265" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K265">
+        <v>3011027</v>
+      </c>
+      <c r="L265">
+        <v>270</v>
+      </c>
+      <c r="M265" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>95</v>
+      </c>
+      <c r="B266" t="s">
+        <v>89</v>
+      </c>
+      <c r="C266" t="s">
+        <v>96</v>
+      </c>
+      <c r="D266" t="s">
+        <v>14</v>
+      </c>
+      <c r="E266" t="s">
+        <v>66</v>
+      </c>
+      <c r="F266">
+        <v>801</v>
+      </c>
+      <c r="G266" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H266" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I266" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J266" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K266">
+        <v>3002314</v>
+      </c>
+      <c r="L266">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>95</v>
+      </c>
+      <c r="B267" t="s">
+        <v>89</v>
+      </c>
+      <c r="C267" t="s">
+        <v>96</v>
+      </c>
+      <c r="D267" t="s">
+        <v>14</v>
+      </c>
+      <c r="E267" t="s">
+        <v>66</v>
+      </c>
+      <c r="F267">
+        <v>801</v>
+      </c>
+      <c r="G267" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H267" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I267" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J267" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K267">
+        <v>3006935</v>
+      </c>
+      <c r="L267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>97</v>
+      </c>
+      <c r="B268" t="s">
+        <v>86</v>
+      </c>
+      <c r="C268" t="s">
+        <v>96</v>
+      </c>
+      <c r="D268" t="s">
+        <v>14</v>
+      </c>
+      <c r="E268" t="s">
+        <v>66</v>
+      </c>
+      <c r="F268">
+        <v>801</v>
+      </c>
+      <c r="G268" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H268" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I268" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J268" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K268">
+        <v>3002315</v>
+      </c>
+      <c r="L268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>98</v>
+      </c>
+      <c r="B269" t="s">
+        <v>86</v>
+      </c>
+      <c r="C269" t="s">
+        <v>96</v>
+      </c>
+      <c r="D269" t="s">
+        <v>14</v>
+      </c>
+      <c r="E269" t="s">
+        <v>99</v>
+      </c>
+      <c r="F269">
+        <v>801</v>
+      </c>
+      <c r="G269" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H269" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I269" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J269" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K269">
+        <v>3011020</v>
+      </c>
+      <c r="L269">
+        <v>3</v>
+      </c>
+      <c r="M269" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>98</v>
+      </c>
+      <c r="B270" t="s">
+        <v>86</v>
+      </c>
+      <c r="C270" t="s">
+        <v>96</v>
+      </c>
+      <c r="D270" t="s">
+        <v>14</v>
+      </c>
+      <c r="E270" t="s">
+        <v>99</v>
+      </c>
+      <c r="F270">
+        <v>801</v>
+      </c>
+      <c r="G270" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H270" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I270" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J270" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K270">
+        <v>3011021</v>
+      </c>
+      <c r="L270">
+        <v>1</v>
+      </c>
+      <c r="M270" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>98</v>
+      </c>
+      <c r="B271" t="s">
+        <v>86</v>
+      </c>
+      <c r="C271" t="s">
+        <v>96</v>
+      </c>
+      <c r="D271" t="s">
+        <v>14</v>
+      </c>
+      <c r="E271" t="s">
+        <v>99</v>
+      </c>
+      <c r="F271">
+        <v>801</v>
+      </c>
+      <c r="G271" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H271" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I271" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J271" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K271">
+        <v>3006938</v>
+      </c>
+      <c r="L271">
+        <v>4</v>
+      </c>
+      <c r="M271" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>98</v>
+      </c>
+      <c r="B272" t="s">
+        <v>86</v>
+      </c>
+      <c r="C272" t="s">
+        <v>96</v>
+      </c>
+      <c r="D272" t="s">
+        <v>14</v>
+      </c>
+      <c r="E272" t="s">
+        <v>99</v>
+      </c>
+      <c r="F272">
+        <v>801</v>
+      </c>
+      <c r="G272" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H272" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I272" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J272" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K272">
+        <v>3006969</v>
+      </c>
+      <c r="L272">
+        <v>1</v>
+      </c>
+      <c r="M272" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>98</v>
+      </c>
+      <c r="B273" t="s">
+        <v>86</v>
+      </c>
+      <c r="C273" t="s">
+        <v>96</v>
+      </c>
+      <c r="D273" t="s">
+        <v>14</v>
+      </c>
+      <c r="E273" t="s">
+        <v>99</v>
+      </c>
+      <c r="F273">
+        <v>801</v>
+      </c>
+      <c r="G273" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H273" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I273" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J273" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K273">
+        <v>3006975</v>
+      </c>
+      <c r="L273">
+        <v>3</v>
+      </c>
+      <c r="M273" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>98</v>
+      </c>
+      <c r="B274" t="s">
+        <v>86</v>
+      </c>
+      <c r="C274" t="s">
+        <v>96</v>
+      </c>
+      <c r="D274" t="s">
+        <v>14</v>
+      </c>
+      <c r="E274" t="s">
+        <v>99</v>
+      </c>
+      <c r="F274">
+        <v>801</v>
+      </c>
+      <c r="G274" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H274" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I274" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J274" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K274">
+        <v>3006950</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>98</v>
+      </c>
+      <c r="B275" t="s">
+        <v>86</v>
+      </c>
+      <c r="C275" t="s">
+        <v>96</v>
+      </c>
+      <c r="D275" t="s">
+        <v>14</v>
+      </c>
+      <c r="E275" t="s">
+        <v>99</v>
+      </c>
+      <c r="F275">
+        <v>801</v>
+      </c>
+      <c r="G275" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H275" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I275" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J275" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K275">
+        <v>3002327</v>
+      </c>
+      <c r="L275">
+        <v>36</v>
+      </c>
+      <c r="M275" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>98</v>
+      </c>
+      <c r="B276" t="s">
+        <v>86</v>
+      </c>
+      <c r="C276" t="s">
+        <v>96</v>
+      </c>
+      <c r="D276" t="s">
+        <v>14</v>
+      </c>
+      <c r="E276" t="s">
+        <v>99</v>
+      </c>
+      <c r="F276">
+        <v>801</v>
+      </c>
+      <c r="G276" s="2">
+        <v>45700</v>
+      </c>
+      <c r="H276" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I276" s="2">
+        <v>45700</v>
+      </c>
+      <c r="J276" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K276">
+        <v>3002333</v>
+      </c>
+      <c r="L276">
+        <v>1</v>
+      </c>
+      <c r="M276" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>100</v>
+      </c>
+      <c r="B277" t="s">
+        <v>86</v>
+      </c>
+      <c r="C277" t="s">
+        <v>96</v>
+      </c>
+      <c r="D277" t="s">
+        <v>14</v>
+      </c>
+      <c r="E277" t="s">
+        <v>99</v>
+      </c>
+      <c r="F277">
+        <v>801</v>
+      </c>
+      <c r="G277" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H277" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I277" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J277" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K277">
+        <v>3002314</v>
+      </c>
+      <c r="L277">
+        <v>1</v>
+      </c>
+      <c r="M277" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>101</v>
+      </c>
+      <c r="B278" t="s">
+        <v>86</v>
+      </c>
+      <c r="C278" t="s">
+        <v>96</v>
+      </c>
+      <c r="D278" t="s">
+        <v>14</v>
+      </c>
+      <c r="E278" t="s">
+        <v>99</v>
+      </c>
+      <c r="F278">
+        <v>801</v>
+      </c>
+      <c r="G278" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H278" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I278" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J278" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K278">
+        <v>3002314</v>
+      </c>
+      <c r="L278">
+        <v>3</v>
+      </c>
+      <c r="M278" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>102</v>
+      </c>
+      <c r="B279" t="s">
+        <v>86</v>
+      </c>
+      <c r="C279" t="s">
+        <v>96</v>
+      </c>
+      <c r="D279" t="s">
+        <v>29</v>
+      </c>
+      <c r="E279" t="s">
+        <v>99</v>
+      </c>
+      <c r="F279">
+        <v>801</v>
+      </c>
+      <c r="G279" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H279" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I279" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J279" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K279">
+        <v>3002327</v>
+      </c>
+      <c r="L279">
+        <v>3</v>
+      </c>
+      <c r="M279" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>102</v>
+      </c>
+      <c r="B280" t="s">
+        <v>86</v>
+      </c>
+      <c r="C280" t="s">
+        <v>96</v>
+      </c>
+      <c r="D280" t="s">
+        <v>29</v>
+      </c>
+      <c r="E280" t="s">
+        <v>99</v>
+      </c>
+      <c r="F280">
+        <v>801</v>
+      </c>
+      <c r="G280" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H280" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I280" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J280" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K280">
+        <v>3002333</v>
+      </c>
+      <c r="L280">
+        <v>3</v>
+      </c>
+      <c r="M280" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>102</v>
+      </c>
+      <c r="B281" t="s">
+        <v>86</v>
+      </c>
+      <c r="C281" t="s">
+        <v>96</v>
+      </c>
+      <c r="D281" t="s">
+        <v>29</v>
+      </c>
+      <c r="E281" t="s">
+        <v>99</v>
+      </c>
+      <c r="F281">
+        <v>801</v>
+      </c>
+      <c r="G281" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H281" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I281" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J281" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K281">
+        <v>3006969</v>
+      </c>
+      <c r="L281">
+        <v>9</v>
+      </c>
+      <c r="M281" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>102</v>
+      </c>
+      <c r="B282" t="s">
+        <v>86</v>
+      </c>
+      <c r="C282" t="s">
+        <v>96</v>
+      </c>
+      <c r="D282" t="s">
+        <v>29</v>
+      </c>
+      <c r="E282" t="s">
+        <v>99</v>
+      </c>
+      <c r="F282">
+        <v>801</v>
+      </c>
+      <c r="G282" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H282" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I282" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J282" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K282">
+        <v>3006975</v>
+      </c>
+      <c r="L282">
+        <v>3</v>
+      </c>
+      <c r="M282" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>103</v>
+      </c>
+      <c r="B283" t="s">
+        <v>86</v>
+      </c>
+      <c r="C283" t="s">
+        <v>104</v>
+      </c>
+      <c r="D283" t="s">
+        <v>29</v>
+      </c>
+      <c r="E283" t="s">
+        <v>99</v>
+      </c>
+      <c r="F283">
+        <v>801</v>
+      </c>
+      <c r="G283" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H283" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I283" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J283" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K283">
+        <v>3006291</v>
+      </c>
+      <c r="L283">
+        <v>3</v>
+      </c>
+      <c r="M283" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>103</v>
+      </c>
+      <c r="B284" t="s">
+        <v>86</v>
+      </c>
+      <c r="C284" t="s">
+        <v>104</v>
+      </c>
+      <c r="D284" t="s">
+        <v>29</v>
+      </c>
+      <c r="E284" t="s">
+        <v>99</v>
+      </c>
+      <c r="F284">
+        <v>801</v>
+      </c>
+      <c r="G284" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H284" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I284" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J284" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K284">
+        <v>3005730</v>
+      </c>
+      <c r="L284">
+        <v>270</v>
+      </c>
+      <c r="M284" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>103</v>
+      </c>
+      <c r="B285" t="s">
+        <v>86</v>
+      </c>
+      <c r="C285" t="s">
+        <v>104</v>
+      </c>
+      <c r="D285" t="s">
+        <v>29</v>
+      </c>
+      <c r="E285" t="s">
+        <v>99</v>
+      </c>
+      <c r="F285">
+        <v>801</v>
+      </c>
+      <c r="G285" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H285" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I285" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J285" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K285">
+        <v>3006938</v>
+      </c>
+      <c r="L285">
+        <v>270</v>
+      </c>
+      <c r="M285" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>103</v>
+      </c>
+      <c r="B286" t="s">
+        <v>86</v>
+      </c>
+      <c r="C286" t="s">
+        <v>104</v>
+      </c>
+      <c r="D286" t="s">
+        <v>29</v>
+      </c>
+      <c r="E286" t="s">
+        <v>99</v>
+      </c>
+      <c r="F286">
+        <v>801</v>
+      </c>
+      <c r="G286" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H286" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I286" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J286" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K286">
+        <v>3006985</v>
+      </c>
+      <c r="L286">
+        <v>3</v>
+      </c>
+      <c r="M286" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>103</v>
+      </c>
+      <c r="B287" t="s">
+        <v>86</v>
+      </c>
+      <c r="C287" t="s">
+        <v>104</v>
+      </c>
+      <c r="D287" t="s">
+        <v>29</v>
+      </c>
+      <c r="E287" t="s">
+        <v>99</v>
+      </c>
+      <c r="F287">
+        <v>801</v>
+      </c>
+      <c r="G287" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H287" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I287" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J287" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K287">
+        <v>3009723</v>
+      </c>
+      <c r="L287">
+        <v>3</v>
+      </c>
+      <c r="M287" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>103</v>
+      </c>
+      <c r="B288" t="s">
+        <v>86</v>
+      </c>
+      <c r="C288" t="s">
+        <v>104</v>
+      </c>
+      <c r="D288" t="s">
+        <v>29</v>
+      </c>
+      <c r="E288" t="s">
+        <v>99</v>
+      </c>
+      <c r="F288">
+        <v>801</v>
+      </c>
+      <c r="G288" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H288" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I288" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J288" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K288">
+        <v>3002370</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>103</v>
+      </c>
+      <c r="B289" t="s">
+        <v>86</v>
+      </c>
+      <c r="C289" t="s">
+        <v>104</v>
+      </c>
+      <c r="D289" t="s">
+        <v>29</v>
+      </c>
+      <c r="E289" t="s">
+        <v>99</v>
+      </c>
+      <c r="F289">
+        <v>801</v>
+      </c>
+      <c r="G289" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H289" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I289" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J289" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K289">
+        <v>3006969</v>
+      </c>
+      <c r="L289">
+        <v>4</v>
+      </c>
+      <c r="M289" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>103</v>
+      </c>
+      <c r="B290" t="s">
+        <v>86</v>
+      </c>
+      <c r="C290" t="s">
+        <v>104</v>
+      </c>
+      <c r="D290" t="s">
+        <v>29</v>
+      </c>
+      <c r="E290" t="s">
+        <v>99</v>
+      </c>
+      <c r="F290">
+        <v>801</v>
+      </c>
+      <c r="G290" s="2">
+        <v>45701</v>
+      </c>
+      <c r="H290" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="I290" s="2">
+        <v>45701</v>
+      </c>
+      <c r="J290" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K290">
+        <v>3006974</v>
+      </c>
+      <c r="L290">
+        <v>1</v>
+      </c>
+      <c r="M290" t="s">
         <v>17</v>
       </c>
     </row>

--- a/dados_apontamento.xlsx
+++ b/dados_apontamento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Fabrício\Trabalho\Ceneged\codigo ceneged\RobosCeneged\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabriciogama\Downloads\Nova pasta\Robo_apontamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856FBBDF-6109-4057-851C-2C7CACADA2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56988E3B-749A-4E7A-822F-F92D8A4BAC4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$M$204</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="74">
   <si>
     <t>obras_chosen</t>
   </si>
@@ -241,103 +241,10 @@
     <t>Vassouras</t>
   </si>
   <si>
-    <t>OMI-25-3501</t>
+    <t>OS-96186183</t>
   </si>
   <si>
-    <t>MT003</t>
-  </si>
-  <si>
-    <t>OII-24-6045</t>
-  </si>
-  <si>
-    <t>EX001</t>
-  </si>
-  <si>
-    <t>OII-24-6044</t>
-  </si>
-  <si>
-    <t>OII-24-6010</t>
-  </si>
-  <si>
-    <t>OMI-24-3532</t>
-  </si>
-  <si>
-    <t>OII-24-6011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OII-24-6010 </t>
-  </si>
-  <si>
-    <t>OS 96968596</t>
-  </si>
-  <si>
-    <t>OS 96964134</t>
-  </si>
-  <si>
-    <t>36 meses LV</t>
-  </si>
-  <si>
-    <t>MT007</t>
-  </si>
-  <si>
-    <t>OS 96581931</t>
-  </si>
-  <si>
-    <t>36 meses</t>
-  </si>
-  <si>
-    <t>OS 96962645</t>
-  </si>
-  <si>
-    <t>OS 96981936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 meses </t>
-  </si>
-  <si>
-    <t>OS 96957206</t>
-  </si>
-  <si>
-    <t>OS 96992214</t>
-  </si>
-  <si>
-    <t>OS 96968397</t>
-  </si>
-  <si>
-    <t>OS 96989529</t>
-  </si>
-  <si>
-    <t>OS 97002233</t>
-  </si>
-  <si>
-    <t>OII-24-2012</t>
-  </si>
-  <si>
-    <t>MT004</t>
-  </si>
-  <si>
-    <t>OII-24-7036</t>
-  </si>
-  <si>
-    <t>OII-25-4011</t>
-  </si>
-  <si>
-    <t>Três Rios</t>
-  </si>
-  <si>
-    <t>OII-25-4040</t>
-  </si>
-  <si>
-    <t>OII-25-4033</t>
-  </si>
-  <si>
-    <t>OS 96983183</t>
-  </si>
-  <si>
-    <t>OS 96989142</t>
-  </si>
-  <si>
-    <t>EX012</t>
+    <t>OS-96206575</t>
   </si>
 </sst>
 </file>
@@ -369,7 +276,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -377,17 +284,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,30 +631,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:M290"/>
+  <dimension ref="A1:M218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="A266" sqref="A266:M266"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="I206" sqref="I206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -808,7 +736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -849,7 +777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -890,7 +818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -931,7 +859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -972,7 +900,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1054,7 +982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1095,7 +1023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1177,7 +1105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1218,7 +1146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1259,7 +1187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1300,7 +1228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +1269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1382,7 +1310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1423,7 +1351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1464,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1505,7 +1433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1546,7 +1474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1587,7 +1515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1628,7 +1556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1669,7 +1597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1710,7 +1638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1751,7 +1679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1792,7 +1720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1833,7 +1761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1874,7 +1802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1915,7 +1843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1956,7 +1884,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1997,7 +1925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2038,7 +1966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -2079,7 +2007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2120,7 +2048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -2161,7 +2089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -2202,7 +2130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -2243,7 +2171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -2284,7 +2212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -2325,7 +2253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -2366,7 +2294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -2407,7 +2335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2448,7 +2376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -2489,7 +2417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -2530,7 +2458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -2571,7 +2499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -2612,7 +2540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -2653,7 +2581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -2694,7 +2622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2735,7 +2663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>32</v>
       </c>
@@ -2776,7 +2704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -2817,7 +2745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2858,7 +2786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -2899,7 +2827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -2940,7 +2868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2981,7 +2909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -3022,7 +2950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>34</v>
       </c>
@@ -3063,7 +2991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -3104,7 +3032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>34</v>
       </c>
@@ -3145,7 +3073,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -3186,7 +3114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -3227,7 +3155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>35</v>
       </c>
@@ -3268,7 +3196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>35</v>
       </c>
@@ -3309,7 +3237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -3350,7 +3278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -3391,7 +3319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -3432,7 +3360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -3473,7 +3401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>35</v>
       </c>
@@ -3514,7 +3442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>35</v>
       </c>
@@ -3555,7 +3483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -3596,7 +3524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>36</v>
       </c>
@@ -3637,7 +3565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>36</v>
       </c>
@@ -3678,7 +3606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -3719,7 +3647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -3760,7 +3688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>36</v>
       </c>
@@ -3801,7 +3729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>36</v>
       </c>
@@ -3842,7 +3770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>37</v>
       </c>
@@ -3883,7 +3811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -3924,7 +3852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -3965,7 +3893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>37</v>
       </c>
@@ -4006,7 +3934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -4047,7 +3975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -4088,7 +4016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -4129,7 +4057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -4170,7 +4098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -4211,7 +4139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -4252,7 +4180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -4293,7 +4221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -4334,7 +4262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -4375,7 +4303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -4416,7 +4344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -4457,7 +4385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -4498,7 +4426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -4539,7 +4467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>42</v>
       </c>
@@ -4580,7 +4508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>42</v>
       </c>
@@ -4621,7 +4549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>42</v>
       </c>
@@ -4662,7 +4590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -4703,7 +4631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -4744,7 +4672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>43</v>
       </c>
@@ -4785,7 +4713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -4826,7 +4754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -4867,7 +4795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -4908,7 +4836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>43</v>
       </c>
@@ -4949,7 +4877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -4990,7 +4918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -5031,7 +4959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>35</v>
       </c>
@@ -5072,7 +5000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>35</v>
       </c>
@@ -5113,7 +5041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>35</v>
       </c>
@@ -5154,7 +5082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -5195,7 +5123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>37</v>
       </c>
@@ -5236,7 +5164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>37</v>
       </c>
@@ -5277,7 +5205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -5318,7 +5246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>37</v>
       </c>
@@ -5359,7 +5287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>40</v>
       </c>
@@ -5400,7 +5328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -5441,7 +5369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -5482,7 +5410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -5523,7 +5451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -5564,7 +5492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>45</v>
       </c>
@@ -5605,7 +5533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>45</v>
       </c>
@@ -5646,7 +5574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>45</v>
       </c>
@@ -5687,7 +5615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -5728,7 +5656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>47</v>
       </c>
@@ -5769,7 +5697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>47</v>
       </c>
@@ -5810,7 +5738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>47</v>
       </c>
@@ -5851,7 +5779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>47</v>
       </c>
@@ -5892,7 +5820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>48</v>
       </c>
@@ -5933,7 +5861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>48</v>
       </c>
@@ -5974,7 +5902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>48</v>
       </c>
@@ -6015,7 +5943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>48</v>
       </c>
@@ -6056,7 +5984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>48</v>
       </c>
@@ -6097,7 +6025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>48</v>
       </c>
@@ -6138,7 +6066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>48</v>
       </c>
@@ -6179,7 +6107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>48</v>
       </c>
@@ -6220,7 +6148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>48</v>
       </c>
@@ -6261,7 +6189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>49</v>
       </c>
@@ -6302,7 +6230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>49</v>
       </c>
@@ -6343,7 +6271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>49</v>
       </c>
@@ -6384,7 +6312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -6425,7 +6353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -6466,7 +6394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -6507,7 +6435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -6548,7 +6476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -6589,7 +6517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>50</v>
       </c>
@@ -6630,7 +6558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>50</v>
       </c>
@@ -6671,7 +6599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>50</v>
       </c>
@@ -6712,7 +6640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>50</v>
       </c>
@@ -6753,7 +6681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>50</v>
       </c>
@@ -6794,7 +6722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>51</v>
       </c>
@@ -6835,7 +6763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>51</v>
       </c>
@@ -6876,7 +6804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>51</v>
       </c>
@@ -6917,7 +6845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>51</v>
       </c>
@@ -6958,7 +6886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>51</v>
       </c>
@@ -6999,7 +6927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>53</v>
       </c>
@@ -7040,7 +6968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>53</v>
       </c>
@@ -7081,7 +7009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>53</v>
       </c>
@@ -7122,7 +7050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>53</v>
       </c>
@@ -7163,7 +7091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>53</v>
       </c>
@@ -7204,7 +7132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>54</v>
       </c>
@@ -7245,7 +7173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>54</v>
       </c>
@@ -7286,7 +7214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>54</v>
       </c>
@@ -7327,7 +7255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>54</v>
       </c>
@@ -7368,7 +7296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>54</v>
       </c>
@@ -7409,7 +7337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>40</v>
       </c>
@@ -7450,7 +7378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>55</v>
       </c>
@@ -7491,7 +7419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>55</v>
       </c>
@@ -7532,7 +7460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>55</v>
       </c>
@@ -7573,7 +7501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>56</v>
       </c>
@@ -7614,7 +7542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>56</v>
       </c>
@@ -7655,7 +7583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>56</v>
       </c>
@@ -7696,7 +7624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>56</v>
       </c>
@@ -7737,7 +7665,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="B172" t="s">
         <v>20</v>
       </c>
@@ -7769,7 +7700,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="B173" t="s">
         <v>20</v>
       </c>
@@ -7801,7 +7735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>57</v>
       </c>
@@ -7842,7 +7776,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>40</v>
       </c>
@@ -7883,7 +7817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>59</v>
       </c>
@@ -7924,7 +7858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>59</v>
       </c>
@@ -7965,7 +7899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>59</v>
       </c>
@@ -8006,7 +7940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>59</v>
       </c>
@@ -8047,7 +7981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>59</v>
       </c>
@@ -8088,7 +8022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>59</v>
       </c>
@@ -8129,7 +8063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>61</v>
       </c>
@@ -8170,7 +8104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>61</v>
       </c>
@@ -8211,7 +8145,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>61</v>
       </c>
@@ -8252,7 +8186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -8293,7 +8227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>61</v>
       </c>
@@ -8334,7 +8268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>61</v>
       </c>
@@ -8375,7 +8309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>61</v>
       </c>
@@ -8416,7 +8350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>62</v>
       </c>
@@ -8457,7 +8391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>62</v>
       </c>
@@ -8498,7 +8432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>62</v>
       </c>
@@ -8539,7 +8473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>62</v>
       </c>
@@ -8580,7 +8514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>62</v>
       </c>
@@ -8621,7 +8555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>62</v>
       </c>
@@ -8662,7 +8596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>64</v>
       </c>
@@ -8703,7 +8637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>64</v>
       </c>
@@ -8744,7 +8678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>64</v>
       </c>
@@ -8785,7 +8719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>64</v>
       </c>
@@ -8826,7 +8760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>64</v>
       </c>
@@ -8867,7 +8801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>65</v>
       </c>
@@ -8908,7 +8842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>65</v>
       </c>
@@ -8949,7 +8883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>65</v>
       </c>
@@ -8990,89 +8924,89 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B203" t="s">
         <v>20</v>
       </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E203" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F203">
         <v>801</v>
       </c>
       <c r="G203" s="2">
-        <v>45656</v>
+        <v>45647</v>
       </c>
       <c r="H203" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="I203" s="2">
-        <v>45656</v>
+        <v>45647</v>
       </c>
       <c r="J203" s="3">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="K203">
-        <v>3002336</v>
+        <v>3006290</v>
       </c>
       <c r="L203">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M203" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B204" t="s">
         <v>20</v>
       </c>
       <c r="C204" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F204">
         <v>801</v>
       </c>
       <c r="G204" s="2">
-        <v>45656</v>
+        <v>45647</v>
       </c>
       <c r="H204" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="I204" s="2">
-        <v>45656</v>
+        <v>45647</v>
       </c>
       <c r="J204" s="3">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="K204">
-        <v>3006134</v>
+        <v>3006291</v>
       </c>
       <c r="L204">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="M204" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>67</v>
       </c>
@@ -9104,16 +9038,16 @@
         <v>0.6875</v>
       </c>
       <c r="K205">
-        <v>3006290</v>
+        <v>3007369</v>
       </c>
       <c r="L205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M205" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>67</v>
       </c>
@@ -9145,16 +9079,16 @@
         <v>0.6875</v>
       </c>
       <c r="K206">
-        <v>3006291</v>
+        <v>3006938</v>
       </c>
       <c r="L206">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="M206" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>67</v>
       </c>
@@ -9186,16 +9120,16 @@
         <v>0.6875</v>
       </c>
       <c r="K207">
-        <v>3007369</v>
+        <v>3012490</v>
       </c>
       <c r="L207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M207" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>67</v>
       </c>
@@ -9227,16 +9161,16 @@
         <v>0.6875</v>
       </c>
       <c r="K208">
-        <v>3006938</v>
+        <v>3007369</v>
       </c>
       <c r="L208">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="M208" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>67</v>
       </c>
@@ -9268,7 +9202,7 @@
         <v>0.6875</v>
       </c>
       <c r="K209">
-        <v>3012490</v>
+        <v>3006950</v>
       </c>
       <c r="L209">
         <v>1</v>
@@ -9277,39 +9211,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B210" t="s">
         <v>20</v>
       </c>
       <c r="C210" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D210" t="s">
         <v>29</v>
       </c>
       <c r="E210" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F210">
         <v>801</v>
       </c>
       <c r="G210" s="2">
-        <v>45647</v>
+        <v>45649</v>
       </c>
       <c r="H210" s="3">
-        <v>0.3125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="I210" s="2">
-        <v>45647</v>
+        <v>45649</v>
       </c>
       <c r="J210" s="3">
-        <v>0.6875</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="K210">
-        <v>3007369</v>
+        <v>3011020</v>
       </c>
       <c r="L210">
         <v>1</v>
@@ -9318,39 +9252,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B211" t="s">
         <v>20</v>
       </c>
       <c r="C211" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D211" t="s">
         <v>29</v>
       </c>
       <c r="E211" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F211">
         <v>801</v>
       </c>
       <c r="G211" s="2">
-        <v>45647</v>
+        <v>45649</v>
       </c>
       <c r="H211" s="3">
-        <v>0.3125</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="I211" s="2">
-        <v>45647</v>
+        <v>45649</v>
       </c>
       <c r="J211" s="3">
-        <v>0.6875</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="K211">
-        <v>3006950</v>
+        <v>3011021</v>
       </c>
       <c r="L211">
         <v>1</v>
@@ -9359,39 +9293,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B212" t="s">
         <v>20</v>
       </c>
       <c r="C212" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D212" t="s">
         <v>29</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F212">
         <v>801</v>
       </c>
       <c r="G212" s="2">
-        <v>45652</v>
+        <v>45649</v>
       </c>
       <c r="H212" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="I212" s="2">
-        <v>45652</v>
+        <v>45649</v>
       </c>
       <c r="J212" s="3">
-        <v>0.65625</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="K212">
-        <v>3011020</v>
+        <v>3006974</v>
       </c>
       <c r="L212">
         <v>1</v>
@@ -9400,7 +9334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>68</v>
       </c>
@@ -9432,7 +9366,7 @@
         <v>0.65625</v>
       </c>
       <c r="K213">
-        <v>3011021</v>
+        <v>3011020</v>
       </c>
       <c r="L213">
         <v>1</v>
@@ -9441,7 +9375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>68</v>
       </c>
@@ -9473,3122 +9407,161 @@
         <v>0.65625</v>
       </c>
       <c r="K214">
+        <v>3011021</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>68</v>
+      </c>
+      <c r="B215" t="s">
+        <v>20</v>
+      </c>
+      <c r="C215" t="s">
+        <v>69</v>
+      </c>
+      <c r="D215" t="s">
+        <v>29</v>
+      </c>
+      <c r="E215" t="s">
+        <v>41</v>
+      </c>
+      <c r="F215">
+        <v>801</v>
+      </c>
+      <c r="G215" s="2">
+        <v>45652</v>
+      </c>
+      <c r="H215" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I215" s="2">
+        <v>45652</v>
+      </c>
+      <c r="J215" s="3">
+        <v>0.65625</v>
+      </c>
+      <c r="K215">
         <v>3006974</v>
       </c>
-      <c r="L214">
+      <c r="L215">
         <v>2</v>
       </c>
-      <c r="M214" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>70</v>
-      </c>
-      <c r="B215" t="s">
-        <v>20</v>
-      </c>
-      <c r="C215" t="s">
+      <c r="M215" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>40</v>
+      </c>
+      <c r="B216" t="s">
+        <v>20</v>
+      </c>
+      <c r="C216" t="s">
+        <v>21</v>
+      </c>
+      <c r="D216" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" t="s">
+        <v>41</v>
+      </c>
+      <c r="F216">
+        <v>801</v>
+      </c>
+      <c r="G216" s="2">
+        <v>45656</v>
+      </c>
+      <c r="H216" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I216" s="2">
+        <v>45656</v>
+      </c>
+      <c r="J216" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K216">
+        <v>3002336</v>
+      </c>
+      <c r="L216">
+        <v>8</v>
+      </c>
+      <c r="M216" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>40</v>
+      </c>
+      <c r="B217" t="s">
+        <v>20</v>
+      </c>
+      <c r="C217" t="s">
+        <v>21</v>
+      </c>
+      <c r="D217" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" t="s">
+        <v>41</v>
+      </c>
+      <c r="F217">
+        <v>801</v>
+      </c>
+      <c r="G217" s="2">
+        <v>45656</v>
+      </c>
+      <c r="H217" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I217" s="2">
+        <v>45656</v>
+      </c>
+      <c r="J217" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K217">
+        <v>3006134</v>
+      </c>
+      <c r="L217">
+        <v>300</v>
+      </c>
+      <c r="M217" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>73</v>
+      </c>
+      <c r="B218" t="s">
+        <v>20</v>
+      </c>
+      <c r="C218" t="s">
         <v>23</v>
       </c>
-      <c r="D215" t="s">
-        <v>29</v>
-      </c>
-      <c r="E215" t="s">
-        <v>71</v>
-      </c>
-      <c r="F215">
-        <v>801</v>
-      </c>
-      <c r="G215" s="2">
-        <v>45649</v>
-      </c>
-      <c r="H215" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="I215" s="2">
-        <v>45649</v>
-      </c>
-      <c r="J215" s="3">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="K215">
-        <v>3011020</v>
-      </c>
-      <c r="L215">
-        <v>1</v>
-      </c>
-      <c r="M215" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>70</v>
-      </c>
-      <c r="B216" t="s">
-        <v>20</v>
-      </c>
-      <c r="C216" t="s">
-        <v>23</v>
-      </c>
-      <c r="D216" t="s">
-        <v>29</v>
-      </c>
-      <c r="E216" t="s">
-        <v>71</v>
-      </c>
-      <c r="F216">
-        <v>801</v>
-      </c>
-      <c r="G216" s="2">
-        <v>45649</v>
-      </c>
-      <c r="H216" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="I216" s="2">
-        <v>45649</v>
-      </c>
-      <c r="J216" s="3">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="K216">
-        <v>3011021</v>
-      </c>
-      <c r="L216">
-        <v>1</v>
-      </c>
-      <c r="M216" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>70</v>
-      </c>
-      <c r="B217" t="s">
-        <v>20</v>
-      </c>
-      <c r="C217" t="s">
-        <v>23</v>
-      </c>
-      <c r="D217" t="s">
-        <v>29</v>
-      </c>
-      <c r="E217" t="s">
-        <v>71</v>
-      </c>
-      <c r="F217">
-        <v>801</v>
-      </c>
-      <c r="G217" s="2">
-        <v>45649</v>
-      </c>
-      <c r="H217" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="I217" s="2">
-        <v>45649</v>
-      </c>
-      <c r="J217" s="3">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="K217">
-        <v>3006974</v>
-      </c>
-      <c r="L217">
-        <v>1</v>
-      </c>
-      <c r="M217" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>72</v>
-      </c>
-      <c r="B218" t="s">
-        <v>20</v>
-      </c>
-      <c r="C218" t="s">
-        <v>73</v>
-      </c>
       <c r="D218" t="s">
-        <v>20</v>
-      </c>
-      <c r="E218" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F218">
         <v>801</v>
       </c>
-      <c r="G218" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H218" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I218" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J218" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K218">
-        <v>3007366</v>
-      </c>
-      <c r="L218">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>72</v>
-      </c>
-      <c r="B219" t="s">
-        <v>20</v>
-      </c>
-      <c r="C219" t="s">
-        <v>73</v>
-      </c>
-      <c r="D219" t="s">
-        <v>20</v>
-      </c>
-      <c r="E219" t="s">
-        <v>39</v>
-      </c>
-      <c r="F219">
-        <v>801</v>
-      </c>
-      <c r="G219" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H219" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I219" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J219" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K219">
-        <v>3007367</v>
-      </c>
-      <c r="L219">
-        <v>3</v>
-      </c>
-      <c r="M219" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>72</v>
-      </c>
-      <c r="B220" t="s">
-        <v>20</v>
-      </c>
-      <c r="C220" t="s">
-        <v>73</v>
-      </c>
-      <c r="D220" t="s">
-        <v>20</v>
-      </c>
-      <c r="E220" t="s">
-        <v>39</v>
-      </c>
-      <c r="F220">
-        <v>801</v>
-      </c>
-      <c r="G220" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H220" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I220" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J220" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K220">
-        <v>3006135</v>
-      </c>
-      <c r="L220">
-        <v>270</v>
-      </c>
-      <c r="M220" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>72</v>
-      </c>
-      <c r="B221" t="s">
-        <v>20</v>
-      </c>
-      <c r="C221" t="s">
-        <v>73</v>
-      </c>
-      <c r="D221" t="s">
-        <v>20</v>
-      </c>
-      <c r="E221" t="s">
-        <v>39</v>
-      </c>
-      <c r="F221">
-        <v>801</v>
-      </c>
-      <c r="G221" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H221" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I221" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J221" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K221">
-        <v>3006137</v>
-      </c>
-      <c r="L221">
-        <v>270</v>
-      </c>
-      <c r="M221" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>72</v>
-      </c>
-      <c r="B222" t="s">
-        <v>20</v>
-      </c>
-      <c r="C222" t="s">
-        <v>73</v>
-      </c>
-      <c r="D222" t="s">
-        <v>20</v>
-      </c>
-      <c r="E222" t="s">
-        <v>39</v>
-      </c>
-      <c r="F222">
-        <v>801</v>
-      </c>
-      <c r="G222" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H222" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I222" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J222" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K222">
-        <v>3006974</v>
-      </c>
-      <c r="L222">
-        <v>2</v>
-      </c>
-      <c r="M222" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>74</v>
-      </c>
-      <c r="B223" t="s">
-        <v>14</v>
-      </c>
-      <c r="C223" t="s">
-        <v>75</v>
-      </c>
-      <c r="D223" t="s">
-        <v>14</v>
-      </c>
-      <c r="E223" t="s">
-        <v>39</v>
-      </c>
-      <c r="F223">
-        <v>801</v>
-      </c>
-      <c r="G223" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H223" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I223" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J223" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K223">
-        <v>3002314</v>
-      </c>
-      <c r="L223">
-        <v>3</v>
-      </c>
-      <c r="M223" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>74</v>
-      </c>
-      <c r="B224" t="s">
-        <v>14</v>
-      </c>
-      <c r="C224" t="s">
-        <v>75</v>
-      </c>
-      <c r="D224" t="s">
-        <v>14</v>
-      </c>
-      <c r="E224" t="s">
-        <v>39</v>
-      </c>
-      <c r="F224">
-        <v>801</v>
-      </c>
-      <c r="G224" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H224" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I224" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J224" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K224">
-        <v>3002314</v>
-      </c>
-      <c r="L224">
-        <v>3</v>
-      </c>
-      <c r="M224" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>76</v>
-      </c>
-      <c r="B225" t="s">
-        <v>14</v>
-      </c>
-      <c r="C225" t="s">
-        <v>75</v>
-      </c>
-      <c r="D225" t="s">
-        <v>14</v>
-      </c>
-      <c r="E225" t="s">
-        <v>39</v>
-      </c>
-      <c r="F225">
-        <v>801</v>
-      </c>
-      <c r="G225" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H225" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I225" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J225" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K225">
-        <v>3002314</v>
-      </c>
-      <c r="L225">
-        <v>3</v>
-      </c>
-      <c r="M225" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>76</v>
-      </c>
-      <c r="B226" t="s">
-        <v>14</v>
-      </c>
-      <c r="C226" t="s">
-        <v>75</v>
-      </c>
-      <c r="D226" t="s">
-        <v>14</v>
-      </c>
-      <c r="E226" t="s">
-        <v>39</v>
-      </c>
-      <c r="F226">
-        <v>801</v>
-      </c>
-      <c r="G226" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H226" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I226" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J226" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K226">
-        <v>3007369</v>
-      </c>
-      <c r="L226">
-        <v>3</v>
-      </c>
-      <c r="M226" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>77</v>
-      </c>
-      <c r="B227" t="s">
-        <v>14</v>
-      </c>
-      <c r="C227" t="s">
-        <v>75</v>
-      </c>
-      <c r="D227" t="s">
-        <v>14</v>
-      </c>
-      <c r="E227" t="s">
-        <v>39</v>
-      </c>
-      <c r="F227">
-        <v>801</v>
-      </c>
-      <c r="G227" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H227" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I227" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J227" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K227">
-        <v>3007369</v>
-      </c>
-      <c r="L227">
-        <v>1</v>
-      </c>
-      <c r="M227" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>78</v>
-      </c>
-      <c r="B228" t="s">
-        <v>20</v>
-      </c>
-      <c r="C228" t="s">
-        <v>73</v>
-      </c>
-      <c r="D228" t="s">
-        <v>20</v>
-      </c>
-      <c r="E228" t="s">
-        <v>39</v>
-      </c>
-      <c r="F228">
-        <v>801</v>
-      </c>
-      <c r="G228" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H228" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I228" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J228" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K228">
-        <v>3006974</v>
-      </c>
-      <c r="L228">
-        <v>2</v>
-      </c>
-      <c r="M228" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>79</v>
-      </c>
-      <c r="B229" t="s">
-        <v>14</v>
-      </c>
-      <c r="C229" t="s">
-        <v>75</v>
-      </c>
-      <c r="D229" t="s">
-        <v>14</v>
-      </c>
-      <c r="E229" t="s">
-        <v>39</v>
-      </c>
-      <c r="F229">
-        <v>801</v>
-      </c>
-      <c r="G229" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H229" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I229" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J229" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K229">
-        <v>3002314</v>
-      </c>
-      <c r="L229">
-        <v>3</v>
-      </c>
-      <c r="M229" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>79</v>
-      </c>
-      <c r="B230" t="s">
-        <v>14</v>
-      </c>
-      <c r="C230" t="s">
-        <v>75</v>
-      </c>
-      <c r="D230" t="s">
-        <v>14</v>
-      </c>
-      <c r="E230" t="s">
-        <v>39</v>
-      </c>
-      <c r="F230">
-        <v>801</v>
-      </c>
-      <c r="G230" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H230" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I230" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J230" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K230">
-        <v>3007369</v>
-      </c>
-      <c r="L230">
-        <v>1</v>
-      </c>
-      <c r="M230" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>80</v>
-      </c>
-      <c r="B231" t="s">
-        <v>14</v>
-      </c>
-      <c r="C231" t="s">
-        <v>75</v>
-      </c>
-      <c r="D231" t="s">
-        <v>14</v>
-      </c>
-      <c r="E231" t="s">
-        <v>39</v>
-      </c>
-      <c r="F231">
-        <v>801</v>
-      </c>
-      <c r="G231" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H231" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I231" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J231" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K231">
-        <v>3002314</v>
-      </c>
-      <c r="L231">
-        <v>3</v>
-      </c>
-      <c r="M231" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>81</v>
-      </c>
-      <c r="B232" t="s">
-        <v>20</v>
-      </c>
-      <c r="C232" t="s">
-        <v>73</v>
-      </c>
-      <c r="D232" t="s">
-        <v>29</v>
-      </c>
-      <c r="E232" t="s">
-        <v>39</v>
-      </c>
-      <c r="F232">
-        <v>801</v>
-      </c>
-      <c r="G232" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H232" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I232" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J232" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K232">
-        <v>3011020</v>
-      </c>
-      <c r="L232">
-        <v>1</v>
-      </c>
-      <c r="M232" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>81</v>
-      </c>
-      <c r="B233" t="s">
-        <v>20</v>
-      </c>
-      <c r="C233" t="s">
-        <v>73</v>
-      </c>
-      <c r="D233" t="s">
-        <v>29</v>
-      </c>
-      <c r="E233" t="s">
-        <v>39</v>
-      </c>
-      <c r="F233">
-        <v>801</v>
-      </c>
-      <c r="G233" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H233" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I233" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J233" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K233">
-        <v>3011021</v>
-      </c>
-      <c r="L233">
-        <v>1</v>
-      </c>
-      <c r="M233" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>81</v>
-      </c>
-      <c r="B234" t="s">
-        <v>20</v>
-      </c>
-      <c r="C234" t="s">
-        <v>73</v>
-      </c>
-      <c r="D234" t="s">
-        <v>29</v>
-      </c>
-      <c r="E234" t="s">
-        <v>39</v>
-      </c>
-      <c r="F234">
-        <v>801</v>
-      </c>
-      <c r="G234" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H234" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I234" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J234" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K234">
-        <v>3006974</v>
-      </c>
-      <c r="L234">
-        <v>1</v>
-      </c>
-      <c r="M234" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>81</v>
-      </c>
-      <c r="B235" t="s">
-        <v>20</v>
-      </c>
-      <c r="C235" t="s">
-        <v>73</v>
-      </c>
-      <c r="D235" t="s">
-        <v>29</v>
-      </c>
-      <c r="E235" t="s">
-        <v>39</v>
-      </c>
-      <c r="F235">
-        <v>801</v>
-      </c>
-      <c r="G235" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H235" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I235" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J235" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K235">
-        <v>3006969</v>
-      </c>
-      <c r="L235">
-        <v>3</v>
-      </c>
-      <c r="M235" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>82</v>
-      </c>
-      <c r="B236" t="s">
-        <v>83</v>
-      </c>
-      <c r="C236" t="s">
-        <v>84</v>
-      </c>
-      <c r="D236" t="s">
-        <v>29</v>
-      </c>
-      <c r="E236" t="s">
-        <v>66</v>
-      </c>
-      <c r="F236">
-        <v>801</v>
-      </c>
-      <c r="G236" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H236" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I236" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J236" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K236">
-        <v>3010783</v>
-      </c>
-      <c r="L236">
-        <v>36</v>
-      </c>
-      <c r="M236" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>82</v>
-      </c>
-      <c r="B237" t="s">
-        <v>83</v>
-      </c>
-      <c r="C237" t="s">
-        <v>84</v>
-      </c>
-      <c r="D237" t="s">
-        <v>29</v>
-      </c>
-      <c r="E237" t="s">
-        <v>66</v>
-      </c>
-      <c r="F237">
-        <v>801</v>
-      </c>
-      <c r="G237" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H237" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I237" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J237" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K237">
-        <v>3010787</v>
-      </c>
-      <c r="L237">
-        <v>1</v>
-      </c>
-      <c r="M237" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>82</v>
-      </c>
-      <c r="B238" t="s">
-        <v>83</v>
-      </c>
-      <c r="C238" t="s">
-        <v>84</v>
-      </c>
-      <c r="D238" t="s">
-        <v>29</v>
-      </c>
-      <c r="E238" t="s">
-        <v>66</v>
-      </c>
-      <c r="F238">
-        <v>801</v>
-      </c>
-      <c r="G238" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H238" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I238" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J238" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K238">
-        <v>3001874</v>
-      </c>
-      <c r="L238">
-        <v>1</v>
-      </c>
-      <c r="M238" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>85</v>
-      </c>
-      <c r="B239" t="s">
-        <v>86</v>
-      </c>
-      <c r="C239" t="s">
-        <v>84</v>
-      </c>
-      <c r="D239" t="s">
-        <v>29</v>
-      </c>
-      <c r="E239" t="s">
-        <v>66</v>
-      </c>
-      <c r="F239">
-        <v>801</v>
-      </c>
-      <c r="G239" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H239" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I239" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J239" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K239">
-        <v>3001874</v>
-      </c>
-      <c r="L239">
-        <v>1</v>
-      </c>
-      <c r="M239" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>87</v>
-      </c>
-      <c r="B240" t="s">
-        <v>83</v>
-      </c>
-      <c r="C240" t="s">
-        <v>84</v>
-      </c>
-      <c r="D240" t="s">
-        <v>29</v>
-      </c>
-      <c r="E240" t="s">
-        <v>66</v>
-      </c>
-      <c r="F240">
-        <v>801</v>
-      </c>
-      <c r="G240" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H240" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I240" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J240" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K240">
-        <v>3010787</v>
-      </c>
-      <c r="L240">
-        <v>3</v>
-      </c>
-      <c r="M240" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>87</v>
-      </c>
-      <c r="B241" t="s">
-        <v>83</v>
-      </c>
-      <c r="C241" t="s">
-        <v>84</v>
-      </c>
-      <c r="D241" t="s">
-        <v>29</v>
-      </c>
-      <c r="E241" t="s">
-        <v>66</v>
-      </c>
-      <c r="F241">
-        <v>801</v>
-      </c>
-      <c r="G241" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H241" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I241" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J241" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K241">
-        <v>3007390</v>
-      </c>
-      <c r="L241">
-        <v>3</v>
-      </c>
-      <c r="M241" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>87</v>
-      </c>
-      <c r="B242" t="s">
-        <v>83</v>
-      </c>
-      <c r="C242" t="s">
-        <v>84</v>
-      </c>
-      <c r="D242" t="s">
-        <v>29</v>
-      </c>
-      <c r="E242" t="s">
-        <v>66</v>
-      </c>
-      <c r="F242">
-        <v>801</v>
-      </c>
-      <c r="G242" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H242" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I242" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J242" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K242">
-        <v>3007391</v>
-      </c>
-      <c r="L242">
-        <v>9</v>
-      </c>
-      <c r="M242" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>87</v>
-      </c>
-      <c r="B243" t="s">
-        <v>83</v>
-      </c>
-      <c r="C243" t="s">
-        <v>84</v>
-      </c>
-      <c r="D243" t="s">
-        <v>29</v>
-      </c>
-      <c r="E243" t="s">
-        <v>66</v>
-      </c>
-      <c r="F243">
-        <v>801</v>
-      </c>
-      <c r="G243" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H243" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I243" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J243" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K243">
-        <v>3010783</v>
-      </c>
-      <c r="L243">
-        <v>3</v>
-      </c>
-      <c r="M243" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>87</v>
-      </c>
-      <c r="B244" t="s">
-        <v>83</v>
-      </c>
-      <c r="C244" t="s">
-        <v>84</v>
-      </c>
-      <c r="D244" t="s">
-        <v>29</v>
-      </c>
-      <c r="E244" t="s">
-        <v>66</v>
-      </c>
-      <c r="F244">
-        <v>801</v>
-      </c>
-      <c r="G244" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H244" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I244" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J244" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K244">
-        <v>3010787</v>
-      </c>
-      <c r="L244">
-        <v>3</v>
-      </c>
-      <c r="M244" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>87</v>
-      </c>
-      <c r="B245" t="s">
-        <v>83</v>
-      </c>
-      <c r="C245" t="s">
-        <v>84</v>
-      </c>
-      <c r="D245" t="s">
-        <v>29</v>
-      </c>
-      <c r="E245" t="s">
-        <v>66</v>
-      </c>
-      <c r="F245">
-        <v>801</v>
-      </c>
-      <c r="G245" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H245" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I245" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J245" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K245">
-        <v>3007390</v>
-      </c>
-      <c r="L245">
-        <v>270</v>
-      </c>
-      <c r="M245" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>87</v>
-      </c>
-      <c r="B246" t="s">
-        <v>83</v>
-      </c>
-      <c r="C246" t="s">
-        <v>84</v>
-      </c>
-      <c r="D246" t="s">
-        <v>29</v>
-      </c>
-      <c r="E246" t="s">
-        <v>66</v>
-      </c>
-      <c r="F246">
-        <v>801</v>
-      </c>
-      <c r="G246" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H246" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I246" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J246" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K246">
-        <v>3007391</v>
-      </c>
-      <c r="L246">
-        <v>270</v>
-      </c>
-      <c r="M246" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>88</v>
-      </c>
-      <c r="B247" t="s">
-        <v>89</v>
-      </c>
-      <c r="C247" t="s">
-        <v>84</v>
-      </c>
-      <c r="D247" t="s">
-        <v>29</v>
-      </c>
-      <c r="E247" t="s">
-        <v>66</v>
-      </c>
-      <c r="F247">
-        <v>801</v>
-      </c>
-      <c r="G247" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H247" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I247" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J247" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K247">
-        <v>3002327</v>
-      </c>
-      <c r="L247">
-        <v>2</v>
-      </c>
-      <c r="M247" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>88</v>
-      </c>
-      <c r="B248" t="s">
-        <v>89</v>
-      </c>
-      <c r="C248" t="s">
-        <v>84</v>
-      </c>
-      <c r="D248" t="s">
-        <v>29</v>
-      </c>
-      <c r="E248" t="s">
-        <v>66</v>
-      </c>
-      <c r="F248">
-        <v>801</v>
-      </c>
-      <c r="G248" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H248" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I248" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J248" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K248">
-        <v>3002333</v>
-      </c>
-      <c r="L248">
-        <v>3</v>
-      </c>
-      <c r="M248" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>88</v>
-      </c>
-      <c r="B249" t="s">
-        <v>89</v>
-      </c>
-      <c r="C249" t="s">
-        <v>84</v>
-      </c>
-      <c r="D249" t="s">
-        <v>29</v>
-      </c>
-      <c r="E249" t="s">
-        <v>66</v>
-      </c>
-      <c r="F249">
-        <v>801</v>
-      </c>
-      <c r="G249" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H249" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I249" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J249" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K249">
-        <v>3006292</v>
-      </c>
-      <c r="L249">
-        <v>3</v>
-      </c>
-      <c r="M249" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>88</v>
-      </c>
-      <c r="B250" t="s">
-        <v>89</v>
-      </c>
-      <c r="C250" t="s">
-        <v>84</v>
-      </c>
-      <c r="D250" t="s">
-        <v>29</v>
-      </c>
-      <c r="E250" t="s">
-        <v>66</v>
-      </c>
-      <c r="F250">
-        <v>801</v>
-      </c>
-      <c r="G250" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H250" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I250" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J250" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K250">
-        <v>3006293</v>
-      </c>
-      <c r="L250">
-        <v>1</v>
-      </c>
-      <c r="M250" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>88</v>
-      </c>
-      <c r="B251" t="s">
-        <v>89</v>
-      </c>
-      <c r="C251" t="s">
-        <v>84</v>
-      </c>
-      <c r="D251" t="s">
-        <v>29</v>
-      </c>
-      <c r="E251" t="s">
-        <v>66</v>
-      </c>
-      <c r="F251">
-        <v>801</v>
-      </c>
-      <c r="G251" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H251" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I251" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J251" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K251">
-        <v>3009723</v>
-      </c>
-      <c r="L251">
-        <v>4</v>
-      </c>
-      <c r="M251" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>88</v>
-      </c>
-      <c r="B252" t="s">
-        <v>89</v>
-      </c>
-      <c r="C252" t="s">
-        <v>84</v>
-      </c>
-      <c r="D252" t="s">
-        <v>29</v>
-      </c>
-      <c r="E252" t="s">
-        <v>66</v>
-      </c>
-      <c r="F252">
-        <v>801</v>
-      </c>
-      <c r="G252" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H252" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I252" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J252" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K252">
-        <v>3006939</v>
-      </c>
-      <c r="L252">
-        <v>1</v>
-      </c>
-      <c r="M252" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>90</v>
-      </c>
-      <c r="B253" t="s">
-        <v>89</v>
-      </c>
-      <c r="C253" t="s">
-        <v>84</v>
-      </c>
-      <c r="D253" t="s">
-        <v>29</v>
-      </c>
-      <c r="E253" t="s">
-        <v>66</v>
-      </c>
-      <c r="F253">
-        <v>801</v>
-      </c>
-      <c r="G253" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H253" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I253" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J253" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K253">
-        <v>3002327</v>
-      </c>
-      <c r="L253">
-        <v>3</v>
-      </c>
-      <c r="M253" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>90</v>
-      </c>
-      <c r="B254" t="s">
-        <v>89</v>
-      </c>
-      <c r="C254" t="s">
-        <v>84</v>
-      </c>
-      <c r="D254" t="s">
-        <v>29</v>
-      </c>
-      <c r="E254" t="s">
-        <v>66</v>
-      </c>
-      <c r="F254">
-        <v>801</v>
-      </c>
-      <c r="G254" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H254" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I254" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J254" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K254">
-        <v>3007369</v>
-      </c>
-      <c r="L254">
-        <v>1</v>
-      </c>
-      <c r="M254" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>90</v>
-      </c>
-      <c r="B255" t="s">
-        <v>89</v>
-      </c>
-      <c r="C255" t="s">
-        <v>84</v>
-      </c>
-      <c r="D255" t="s">
-        <v>29</v>
-      </c>
-      <c r="E255" t="s">
-        <v>66</v>
-      </c>
-      <c r="F255">
-        <v>801</v>
-      </c>
-      <c r="G255" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H255" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I255" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J255" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K255">
-        <v>3006292</v>
-      </c>
-      <c r="L255">
-        <v>36</v>
-      </c>
-      <c r="M255" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>91</v>
-      </c>
-      <c r="B256" t="s">
-        <v>89</v>
-      </c>
-      <c r="C256" t="s">
-        <v>84</v>
-      </c>
-      <c r="D256" t="s">
-        <v>29</v>
-      </c>
-      <c r="E256" t="s">
-        <v>66</v>
-      </c>
-      <c r="F256">
-        <v>801</v>
-      </c>
-      <c r="G256" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H256" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I256" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J256" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K256">
-        <v>3006293</v>
-      </c>
-      <c r="L256">
-        <v>1</v>
-      </c>
-      <c r="M256" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>91</v>
-      </c>
-      <c r="B257" t="s">
-        <v>89</v>
-      </c>
-      <c r="C257" t="s">
-        <v>84</v>
-      </c>
-      <c r="D257" t="s">
-        <v>29</v>
-      </c>
-      <c r="E257" t="s">
-        <v>66</v>
-      </c>
-      <c r="F257">
-        <v>801</v>
-      </c>
-      <c r="G257" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H257" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I257" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J257" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K257">
-        <v>3006975</v>
-      </c>
-      <c r="L257">
-        <v>1</v>
-      </c>
-      <c r="M257" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>91</v>
-      </c>
-      <c r="B258" t="s">
-        <v>89</v>
-      </c>
-      <c r="C258" t="s">
-        <v>84</v>
-      </c>
-      <c r="D258" t="s">
-        <v>29</v>
-      </c>
-      <c r="E258" t="s">
-        <v>66</v>
-      </c>
-      <c r="F258">
-        <v>801</v>
-      </c>
-      <c r="G258" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H258" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I258" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J258" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K258">
-        <v>3011020</v>
-      </c>
-      <c r="L258">
-        <v>1</v>
-      </c>
-      <c r="M258" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>91</v>
-      </c>
-      <c r="B259" t="s">
-        <v>89</v>
-      </c>
-      <c r="C259" t="s">
-        <v>84</v>
-      </c>
-      <c r="D259" t="s">
-        <v>29</v>
-      </c>
-      <c r="E259" t="s">
-        <v>66</v>
-      </c>
-      <c r="F259">
-        <v>801</v>
-      </c>
-      <c r="G259" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H259" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I259" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J259" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K259">
-        <v>3011021</v>
-      </c>
-      <c r="L259">
-        <v>3</v>
-      </c>
-      <c r="M259" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>91</v>
-      </c>
-      <c r="B260" t="s">
-        <v>89</v>
-      </c>
-      <c r="C260" t="s">
-        <v>84</v>
-      </c>
-      <c r="D260" t="s">
-        <v>29</v>
-      </c>
-      <c r="E260" t="s">
-        <v>66</v>
-      </c>
-      <c r="F260">
-        <v>801</v>
-      </c>
-      <c r="G260" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H260" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I260" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J260" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K260">
-        <v>3006975</v>
-      </c>
-      <c r="L260">
-        <v>3</v>
-      </c>
-      <c r="M260" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>92</v>
-      </c>
-      <c r="B261" t="s">
-        <v>89</v>
-      </c>
-      <c r="C261" t="s">
-        <v>84</v>
-      </c>
-      <c r="D261" t="s">
-        <v>29</v>
-      </c>
-      <c r="E261" t="s">
-        <v>66</v>
-      </c>
-      <c r="F261">
-        <v>801</v>
-      </c>
-      <c r="G261" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H261" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I261" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J261" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K261">
-        <v>3011017</v>
-      </c>
-      <c r="L261">
-        <v>3</v>
-      </c>
-      <c r="M261" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>92</v>
-      </c>
-      <c r="B262" t="s">
-        <v>89</v>
-      </c>
-      <c r="C262" t="s">
-        <v>84</v>
-      </c>
-      <c r="D262" t="s">
-        <v>29</v>
-      </c>
-      <c r="E262" t="s">
-        <v>66</v>
-      </c>
-      <c r="F262">
-        <v>801</v>
-      </c>
-      <c r="G262" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H262" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I262" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J262" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K262">
-        <v>3006975</v>
-      </c>
-      <c r="L262">
-        <v>9</v>
-      </c>
-      <c r="M262" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>93</v>
-      </c>
-      <c r="B263" t="s">
-        <v>89</v>
-      </c>
-      <c r="C263" t="s">
-        <v>84</v>
-      </c>
-      <c r="D263" t="s">
-        <v>29</v>
-      </c>
-      <c r="E263" t="s">
-        <v>66</v>
-      </c>
-      <c r="F263">
-        <v>801</v>
-      </c>
-      <c r="G263" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H263" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I263" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J263" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K263">
-        <v>3009281</v>
-      </c>
-      <c r="L263">
-        <v>3</v>
-      </c>
-      <c r="M263" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>94</v>
-      </c>
-      <c r="B264" t="s">
-        <v>89</v>
-      </c>
-      <c r="C264" t="s">
-        <v>84</v>
-      </c>
-      <c r="D264" t="s">
-        <v>29</v>
-      </c>
-      <c r="E264" t="s">
-        <v>66</v>
-      </c>
-      <c r="F264">
-        <v>801</v>
-      </c>
-      <c r="G264" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H264" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I264" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J264" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K264">
-        <v>3011026</v>
-      </c>
-      <c r="L264">
-        <v>3</v>
-      </c>
-      <c r="M264" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>94</v>
-      </c>
-      <c r="B265" t="s">
-        <v>89</v>
-      </c>
-      <c r="C265" t="s">
-        <v>84</v>
-      </c>
-      <c r="D265" t="s">
-        <v>29</v>
-      </c>
-      <c r="E265" t="s">
-        <v>66</v>
-      </c>
-      <c r="F265">
-        <v>801</v>
-      </c>
-      <c r="G265" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H265" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I265" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J265" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K265">
-        <v>3011027</v>
-      </c>
-      <c r="L265">
-        <v>270</v>
-      </c>
-      <c r="M265" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>95</v>
-      </c>
-      <c r="B266" t="s">
-        <v>89</v>
-      </c>
-      <c r="C266" t="s">
-        <v>96</v>
-      </c>
-      <c r="D266" t="s">
-        <v>14</v>
-      </c>
-      <c r="E266" t="s">
-        <v>66</v>
-      </c>
-      <c r="F266">
-        <v>801</v>
-      </c>
-      <c r="G266" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H266" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I266" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J266" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K266">
-        <v>3002314</v>
-      </c>
-      <c r="L266">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>95</v>
-      </c>
-      <c r="B267" t="s">
-        <v>89</v>
-      </c>
-      <c r="C267" t="s">
-        <v>96</v>
-      </c>
-      <c r="D267" t="s">
-        <v>14</v>
-      </c>
-      <c r="E267" t="s">
-        <v>66</v>
-      </c>
-      <c r="F267">
-        <v>801</v>
-      </c>
-      <c r="G267" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H267" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I267" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J267" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K267">
-        <v>3006935</v>
-      </c>
-      <c r="L267">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>97</v>
-      </c>
-      <c r="B268" t="s">
-        <v>86</v>
-      </c>
-      <c r="C268" t="s">
-        <v>96</v>
-      </c>
-      <c r="D268" t="s">
-        <v>14</v>
-      </c>
-      <c r="E268" t="s">
-        <v>66</v>
-      </c>
-      <c r="F268">
-        <v>801</v>
-      </c>
-      <c r="G268" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H268" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I268" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J268" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K268">
-        <v>3002315</v>
-      </c>
-      <c r="L268">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>98</v>
-      </c>
-      <c r="B269" t="s">
-        <v>86</v>
-      </c>
-      <c r="C269" t="s">
-        <v>96</v>
-      </c>
-      <c r="D269" t="s">
-        <v>14</v>
-      </c>
-      <c r="E269" t="s">
-        <v>99</v>
-      </c>
-      <c r="F269">
-        <v>801</v>
-      </c>
-      <c r="G269" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H269" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I269" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J269" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K269">
-        <v>3011020</v>
-      </c>
-      <c r="L269">
-        <v>3</v>
-      </c>
-      <c r="M269" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>98</v>
-      </c>
-      <c r="B270" t="s">
-        <v>86</v>
-      </c>
-      <c r="C270" t="s">
-        <v>96</v>
-      </c>
-      <c r="D270" t="s">
-        <v>14</v>
-      </c>
-      <c r="E270" t="s">
-        <v>99</v>
-      </c>
-      <c r="F270">
-        <v>801</v>
-      </c>
-      <c r="G270" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H270" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I270" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J270" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K270">
-        <v>3011021</v>
-      </c>
-      <c r="L270">
-        <v>1</v>
-      </c>
-      <c r="M270" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>98</v>
-      </c>
-      <c r="B271" t="s">
-        <v>86</v>
-      </c>
-      <c r="C271" t="s">
-        <v>96</v>
-      </c>
-      <c r="D271" t="s">
-        <v>14</v>
-      </c>
-      <c r="E271" t="s">
-        <v>99</v>
-      </c>
-      <c r="F271">
-        <v>801</v>
-      </c>
-      <c r="G271" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H271" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I271" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J271" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K271">
-        <v>3006938</v>
-      </c>
-      <c r="L271">
-        <v>4</v>
-      </c>
-      <c r="M271" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>98</v>
-      </c>
-      <c r="B272" t="s">
-        <v>86</v>
-      </c>
-      <c r="C272" t="s">
-        <v>96</v>
-      </c>
-      <c r="D272" t="s">
-        <v>14</v>
-      </c>
-      <c r="E272" t="s">
-        <v>99</v>
-      </c>
-      <c r="F272">
-        <v>801</v>
-      </c>
-      <c r="G272" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H272" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I272" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J272" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K272">
-        <v>3006969</v>
-      </c>
-      <c r="L272">
-        <v>1</v>
-      </c>
-      <c r="M272" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>98</v>
-      </c>
-      <c r="B273" t="s">
-        <v>86</v>
-      </c>
-      <c r="C273" t="s">
-        <v>96</v>
-      </c>
-      <c r="D273" t="s">
-        <v>14</v>
-      </c>
-      <c r="E273" t="s">
-        <v>99</v>
-      </c>
-      <c r="F273">
-        <v>801</v>
-      </c>
-      <c r="G273" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H273" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I273" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J273" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K273">
-        <v>3006975</v>
-      </c>
-      <c r="L273">
-        <v>3</v>
-      </c>
-      <c r="M273" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>98</v>
-      </c>
-      <c r="B274" t="s">
-        <v>86</v>
-      </c>
-      <c r="C274" t="s">
-        <v>96</v>
-      </c>
-      <c r="D274" t="s">
-        <v>14</v>
-      </c>
-      <c r="E274" t="s">
-        <v>99</v>
-      </c>
-      <c r="F274">
-        <v>801</v>
-      </c>
-      <c r="G274" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H274" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I274" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J274" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K274">
-        <v>3006950</v>
-      </c>
-      <c r="L274">
-        <v>1</v>
-      </c>
-      <c r="M274" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>98</v>
-      </c>
-      <c r="B275" t="s">
-        <v>86</v>
-      </c>
-      <c r="C275" t="s">
-        <v>96</v>
-      </c>
-      <c r="D275" t="s">
-        <v>14</v>
-      </c>
-      <c r="E275" t="s">
-        <v>99</v>
-      </c>
-      <c r="F275">
-        <v>801</v>
-      </c>
-      <c r="G275" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H275" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I275" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J275" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K275">
-        <v>3002327</v>
-      </c>
-      <c r="L275">
-        <v>36</v>
-      </c>
-      <c r="M275" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>98</v>
-      </c>
-      <c r="B276" t="s">
-        <v>86</v>
-      </c>
-      <c r="C276" t="s">
-        <v>96</v>
-      </c>
-      <c r="D276" t="s">
-        <v>14</v>
-      </c>
-      <c r="E276" t="s">
-        <v>99</v>
-      </c>
-      <c r="F276">
-        <v>801</v>
-      </c>
-      <c r="G276" s="2">
-        <v>45700</v>
-      </c>
-      <c r="H276" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I276" s="2">
-        <v>45700</v>
-      </c>
-      <c r="J276" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K276">
-        <v>3002333</v>
-      </c>
-      <c r="L276">
-        <v>1</v>
-      </c>
-      <c r="M276" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>100</v>
-      </c>
-      <c r="B277" t="s">
-        <v>86</v>
-      </c>
-      <c r="C277" t="s">
-        <v>96</v>
-      </c>
-      <c r="D277" t="s">
-        <v>14</v>
-      </c>
-      <c r="E277" t="s">
-        <v>99</v>
-      </c>
-      <c r="F277">
-        <v>801</v>
-      </c>
-      <c r="G277" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H277" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I277" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J277" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K277">
-        <v>3002314</v>
-      </c>
-      <c r="L277">
-        <v>1</v>
-      </c>
-      <c r="M277" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>101</v>
-      </c>
-      <c r="B278" t="s">
-        <v>86</v>
-      </c>
-      <c r="C278" t="s">
-        <v>96</v>
-      </c>
-      <c r="D278" t="s">
-        <v>14</v>
-      </c>
-      <c r="E278" t="s">
-        <v>99</v>
-      </c>
-      <c r="F278">
-        <v>801</v>
-      </c>
-      <c r="G278" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H278" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I278" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J278" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K278">
-        <v>3002314</v>
-      </c>
-      <c r="L278">
-        <v>3</v>
-      </c>
-      <c r="M278" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>102</v>
-      </c>
-      <c r="B279" t="s">
-        <v>86</v>
-      </c>
-      <c r="C279" t="s">
-        <v>96</v>
-      </c>
-      <c r="D279" t="s">
-        <v>29</v>
-      </c>
-      <c r="E279" t="s">
-        <v>99</v>
-      </c>
-      <c r="F279">
-        <v>801</v>
-      </c>
-      <c r="G279" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H279" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I279" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J279" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K279">
-        <v>3002327</v>
-      </c>
-      <c r="L279">
-        <v>3</v>
-      </c>
-      <c r="M279" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>102</v>
-      </c>
-      <c r="B280" t="s">
-        <v>86</v>
-      </c>
-      <c r="C280" t="s">
-        <v>96</v>
-      </c>
-      <c r="D280" t="s">
-        <v>29</v>
-      </c>
-      <c r="E280" t="s">
-        <v>99</v>
-      </c>
-      <c r="F280">
-        <v>801</v>
-      </c>
-      <c r="G280" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H280" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I280" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J280" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K280">
-        <v>3002333</v>
-      </c>
-      <c r="L280">
-        <v>3</v>
-      </c>
-      <c r="M280" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>102</v>
-      </c>
-      <c r="B281" t="s">
-        <v>86</v>
-      </c>
-      <c r="C281" t="s">
-        <v>96</v>
-      </c>
-      <c r="D281" t="s">
-        <v>29</v>
-      </c>
-      <c r="E281" t="s">
-        <v>99</v>
-      </c>
-      <c r="F281">
-        <v>801</v>
-      </c>
-      <c r="G281" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H281" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I281" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J281" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K281">
-        <v>3006969</v>
-      </c>
-      <c r="L281">
-        <v>9</v>
-      </c>
-      <c r="M281" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>102</v>
-      </c>
-      <c r="B282" t="s">
-        <v>86</v>
-      </c>
-      <c r="C282" t="s">
-        <v>96</v>
-      </c>
-      <c r="D282" t="s">
-        <v>29</v>
-      </c>
-      <c r="E282" t="s">
-        <v>99</v>
-      </c>
-      <c r="F282">
-        <v>801</v>
-      </c>
-      <c r="G282" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H282" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I282" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J282" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K282">
-        <v>3006975</v>
-      </c>
-      <c r="L282">
-        <v>3</v>
-      </c>
-      <c r="M282" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>103</v>
-      </c>
-      <c r="B283" t="s">
-        <v>86</v>
-      </c>
-      <c r="C283" t="s">
-        <v>104</v>
-      </c>
-      <c r="D283" t="s">
-        <v>29</v>
-      </c>
-      <c r="E283" t="s">
-        <v>99</v>
-      </c>
-      <c r="F283">
-        <v>801</v>
-      </c>
-      <c r="G283" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H283" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I283" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J283" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K283">
-        <v>3006291</v>
-      </c>
-      <c r="L283">
-        <v>3</v>
-      </c>
-      <c r="M283" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>103</v>
-      </c>
-      <c r="B284" t="s">
-        <v>86</v>
-      </c>
-      <c r="C284" t="s">
-        <v>104</v>
-      </c>
-      <c r="D284" t="s">
-        <v>29</v>
-      </c>
-      <c r="E284" t="s">
-        <v>99</v>
-      </c>
-      <c r="F284">
-        <v>801</v>
-      </c>
-      <c r="G284" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H284" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I284" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J284" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K284">
-        <v>3005730</v>
-      </c>
-      <c r="L284">
-        <v>270</v>
-      </c>
-      <c r="M284" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>103</v>
-      </c>
-      <c r="B285" t="s">
-        <v>86</v>
-      </c>
-      <c r="C285" t="s">
-        <v>104</v>
-      </c>
-      <c r="D285" t="s">
-        <v>29</v>
-      </c>
-      <c r="E285" t="s">
-        <v>99</v>
-      </c>
-      <c r="F285">
-        <v>801</v>
-      </c>
-      <c r="G285" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H285" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I285" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J285" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K285">
-        <v>3006938</v>
-      </c>
-      <c r="L285">
-        <v>270</v>
-      </c>
-      <c r="M285" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>103</v>
-      </c>
-      <c r="B286" t="s">
-        <v>86</v>
-      </c>
-      <c r="C286" t="s">
-        <v>104</v>
-      </c>
-      <c r="D286" t="s">
-        <v>29</v>
-      </c>
-      <c r="E286" t="s">
-        <v>99</v>
-      </c>
-      <c r="F286">
-        <v>801</v>
-      </c>
-      <c r="G286" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H286" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I286" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J286" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K286">
-        <v>3006985</v>
-      </c>
-      <c r="L286">
-        <v>3</v>
-      </c>
-      <c r="M286" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>103</v>
-      </c>
-      <c r="B287" t="s">
-        <v>86</v>
-      </c>
-      <c r="C287" t="s">
-        <v>104</v>
-      </c>
-      <c r="D287" t="s">
-        <v>29</v>
-      </c>
-      <c r="E287" t="s">
-        <v>99</v>
-      </c>
-      <c r="F287">
-        <v>801</v>
-      </c>
-      <c r="G287" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H287" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I287" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J287" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K287">
-        <v>3009723</v>
-      </c>
-      <c r="L287">
-        <v>3</v>
-      </c>
-      <c r="M287" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>103</v>
-      </c>
-      <c r="B288" t="s">
-        <v>86</v>
-      </c>
-      <c r="C288" t="s">
-        <v>104</v>
-      </c>
-      <c r="D288" t="s">
-        <v>29</v>
-      </c>
-      <c r="E288" t="s">
-        <v>99</v>
-      </c>
-      <c r="F288">
-        <v>801</v>
-      </c>
-      <c r="G288" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H288" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I288" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J288" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K288">
-        <v>3002370</v>
-      </c>
-      <c r="L288">
-        <v>1</v>
-      </c>
-      <c r="M288" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>103</v>
-      </c>
-      <c r="B289" t="s">
-        <v>86</v>
-      </c>
-      <c r="C289" t="s">
-        <v>104</v>
-      </c>
-      <c r="D289" t="s">
-        <v>29</v>
-      </c>
-      <c r="E289" t="s">
-        <v>99</v>
-      </c>
-      <c r="F289">
-        <v>801</v>
-      </c>
-      <c r="G289" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H289" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I289" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J289" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K289">
-        <v>3006969</v>
-      </c>
-      <c r="L289">
-        <v>4</v>
-      </c>
-      <c r="M289" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>103</v>
-      </c>
-      <c r="B290" t="s">
-        <v>86</v>
-      </c>
-      <c r="C290" t="s">
-        <v>104</v>
-      </c>
-      <c r="D290" t="s">
-        <v>29</v>
-      </c>
-      <c r="E290" t="s">
-        <v>99</v>
-      </c>
-      <c r="F290">
-        <v>801</v>
-      </c>
-      <c r="G290" s="2">
-        <v>45701</v>
-      </c>
-      <c r="H290" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="I290" s="2">
-        <v>45701</v>
-      </c>
-      <c r="J290" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K290">
-        <v>3006974</v>
-      </c>
-      <c r="L290">
-        <v>1</v>
-      </c>
-      <c r="M290" t="s">
-        <v>17</v>
+      <c r="G218" s="5">
+        <v>45639</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M204" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M204">
+    <sortState ref="A2:M217">
       <sortCondition ref="G1:G204"/>
     </sortState>
   </autoFilter>
